--- a/Financials_result.xlsx
+++ b/Financials_result.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D526"/>
+  <dimension ref="A1:D524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,7 +380,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -388,13 +388,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.01126097980248897</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C2">
-        <v>0.3661016949152542</v>
+        <v>-0.004394469104710197</v>
       </c>
       <c r="D2">
-        <v>0.005418985758021658</v>
+        <v>-0.002774953469003898</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -402,13 +402,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.004394469104710197</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C3">
-        <v>0.7322033898305085</v>
+        <v>0.008253206628406673</v>
       </c>
       <c r="D3">
-        <v>0.01075029239597833</v>
+        <v>0.005211611190838808</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -416,13 +416,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.008253206628406673</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C4">
-        <v>1.098305084745763</v>
+        <v>0.003188673541845155</v>
       </c>
       <c r="D4">
-        <v>0.01165896058264432</v>
+        <v>0.002013535764076714</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -430,13 +430,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003188673541845155</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C5">
-        <v>1.464406779661017</v>
+        <v>0.02391639574301951</v>
       </c>
       <c r="D5">
-        <v>0.006687433209870619</v>
+        <v>0.01510236703269274</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -444,13 +444,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02391639574301951</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C6">
-        <v>1.830508474576271</v>
+        <v>-0.0001142844083021899</v>
       </c>
       <c r="D6">
-        <v>0.007602502759612856</v>
+        <v>-7.216660481952206e-05</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -458,13 +458,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.0001142844083021899</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C7">
-        <v>2.196610169491525</v>
+        <v>0.003172251191079667</v>
       </c>
       <c r="D7">
-        <v>0.01236747727720641</v>
+        <v>0.002003165624216806</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -472,13 +472,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.003172251191079667</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C8">
-        <v>2.56271186440678</v>
+        <v>0.004864309268612033</v>
       </c>
       <c r="D8">
-        <v>0.00850362097353953</v>
+        <v>0.003071641091929566</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -486,13 +486,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.004864309268612033</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C9">
-        <v>2.928813559322034</v>
+        <v>0.0008839428959195317</v>
       </c>
       <c r="D9">
-        <v>-0.001359537843812555</v>
+        <v>0.0005581790079725724</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -500,13 +500,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0008839428959195317</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C10">
-        <v>3.283652268999453</v>
+        <v>0.001494125648659583</v>
       </c>
       <c r="D10">
-        <v>-0.00301562498907326</v>
+        <v>0.0009398220863470614</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -514,13 +514,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.001494125648659583</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C11">
-        <v>3.638490978676873</v>
+        <v>-0.008815834611222151</v>
       </c>
       <c r="D11">
-        <v>-0.003819899593514114</v>
+        <v>-0.00554526059079596</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -528,13 +528,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.008815834611222151</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C12">
-        <v>3.993329688354292</v>
+        <v>0.003349170964937365</v>
       </c>
       <c r="D12">
-        <v>-0.0008127973182460099</v>
+        <v>0.002106666763015712</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -542,13 +542,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.003349170964937365</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C13">
-        <v>4.348168398031712</v>
+        <v>0.005579764068269988</v>
       </c>
       <c r="D13">
-        <v>-0.01767962171431058</v>
+        <v>0.003509735284090983</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -556,13 +556,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.005579764068269988</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C14">
-        <v>4.703007107709131</v>
+        <v>0.01908788378479187</v>
       </c>
       <c r="D14">
-        <v>-0.01309193997525891</v>
+        <v>0.01200649676194706</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -570,13 +570,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.01908788378479187</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C15">
-        <v>5.05784581738655</v>
+        <v>-0.006277568364814634</v>
       </c>
       <c r="D15">
-        <v>-0.01587670220420995</v>
+        <v>-0.003948662151070931</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -584,13 +584,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.006277568364814634</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C16">
-        <v>5.412684527063969</v>
+        <v>0.01357396581833115</v>
       </c>
       <c r="D16">
-        <v>-0.009571673993834186</v>
+        <v>0.008538179427434629</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -598,13 +598,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.01357396581833115</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C17">
-        <v>5.767523236741388</v>
+        <v>0.001826806129316516</v>
       </c>
       <c r="D17">
-        <v>-0.01302703548728711</v>
+        <v>0.001149081905759463</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -612,13 +612,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.001826806129316516</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C18">
-        <v>6.122361946418807</v>
+        <v>-0.002421788462672048</v>
       </c>
       <c r="D18">
-        <v>-0.012235786728097</v>
+        <v>-0.001523332584325546</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -626,13 +626,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.002421788462672048</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C19">
-        <v>6.477200656096226</v>
+        <v>-0.002582355349963095</v>
       </c>
       <c r="D19">
-        <v>-0.007305220886030786</v>
+        <v>-0.001624330989076516</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -640,13 +640,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.002582355349963095</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C20">
-        <v>6.832039365773645</v>
+        <v>0.0058174289798405</v>
       </c>
       <c r="D20">
-        <v>-0.01020425913637407</v>
+        <v>0.003659229226079111</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -654,13 +654,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.0058174289798405</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C21">
-        <v>7.186878075451064</v>
+        <v>-0.001407181252849554</v>
       </c>
       <c r="D21">
-        <v>-0.01888469836283747</v>
+        <v>-0.000885133069034714</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -668,13 +668,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.001407181252849554</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C22">
-        <v>7.541716785128483</v>
+        <v>0.002592952142775218</v>
       </c>
       <c r="D22">
-        <v>-0.0144566196624134</v>
+        <v>0.001630996492702808</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -682,13 +682,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.002592952142775218</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C23">
-        <v>7.896555494805902</v>
+        <v>0.009370665862427074</v>
       </c>
       <c r="D23">
-        <v>-0.02082858466757709</v>
+        <v>0.00589425578042125</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -696,13 +696,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.009370665862427074</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C24">
-        <v>8.251394204483322</v>
+        <v>0.009219048608954061</v>
       </c>
       <c r="D24">
-        <v>-0.02146044013653279</v>
+        <v>0.005798886797489291</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -710,13 +710,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.009219048608954061</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C25">
-        <v>8.606232914160742</v>
+        <v>0.001571295134787931</v>
       </c>
       <c r="D25">
-        <v>-0.0240477057310891</v>
+        <v>0.0009883625739028029</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -724,13 +724,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.001571295134787931</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C26">
-        <v>8.961071623838162</v>
+        <v>-0.008596907966995637</v>
       </c>
       <c r="D26">
-        <v>-0.03265800937139483</v>
+        <v>-0.005407553232838141</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -738,13 +738,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.008596907966995637</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C27">
-        <v>9.315910333515582</v>
+        <v>0.001582364555733129</v>
       </c>
       <c r="D27">
-        <v>-0.02871014824104265</v>
+        <v>0.000995325366019184</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -752,13 +752,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.001582364555733129</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C28">
-        <v>9.670749043193002</v>
+        <v>0.008239730835470915</v>
       </c>
       <c r="D28">
-        <v>-0.01326072574352479</v>
+        <v>0.005182884740435128</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -766,13 +766,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.008239730835470915</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C29">
-        <v>10.02558775287042</v>
+        <v>-0.00668149133045759</v>
       </c>
       <c r="D29">
-        <v>-0.009984712421695706</v>
+        <v>-0.00420273430667218</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -780,13 +780,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.00668149133045759</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C30">
-        <v>10.38042646254784</v>
+        <v>-0.01705565759951355</v>
       </c>
       <c r="D30">
-        <v>-0.007858137142395737</v>
+        <v>-0.01072820329640697</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -794,13 +794,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.01705565759951355</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C31">
-        <v>10.73526517222526</v>
+        <v>-0.002863753471639363</v>
       </c>
       <c r="D31">
-        <v>-0.008991337373988651</v>
+        <v>-0.00180133361937417</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -808,13 +808,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.002863753471639363</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C32">
-        <v>11.09010388190268</v>
+        <v>-0.001390774753134316</v>
       </c>
       <c r="D32">
-        <v>-0.003883778847384585</v>
+        <v>-0.0008748131934567395</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -822,13 +822,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.001390774753134316</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C33">
-        <v>11.4449425915801</v>
+        <v>0.005199967649660131</v>
       </c>
       <c r="D33">
-        <v>-0.003871002432100097</v>
+        <v>0.003270839001944112</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -836,13 +836,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.005199967649660131</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C34">
-        <v>11.79978130125752</v>
+        <v>-0.02916659733637239</v>
       </c>
       <c r="D34">
-        <v>-0.009378163736898034</v>
+        <v>-0.0183461226202131</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -850,13 +850,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.02916659733637239</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C35">
-        <v>12.15462001093494</v>
+        <v>0.007933151069122957</v>
       </c>
       <c r="D35">
-        <v>-0.008025401996729832</v>
+        <v>0.004990042568225969</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -864,13 +864,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.007933151069122957</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C36">
-        <v>12.50945872061236</v>
+        <v>-0.004815490853649074</v>
       </c>
       <c r="D36">
-        <v>-0.006534592236588538</v>
+        <v>-0.003028998708991968</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -878,13 +878,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.004815490853649074</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C37">
-        <v>12.86429743028978</v>
+        <v>0.01090283592739638</v>
       </c>
       <c r="D37">
-        <v>-0.01196363992974238</v>
+        <v>0.006858008238850564</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -892,13 +892,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.01090283592739638</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C38">
-        <v>13.2191361399672</v>
+        <v>-0.005975110368414249</v>
       </c>
       <c r="D38">
-        <v>-0.004420643342177629</v>
+        <v>-0.003758412619202995</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -906,13 +906,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.005975110368414249</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C39">
-        <v>13.57397484964462</v>
+        <v>0.001368250087288914</v>
       </c>
       <c r="D39">
-        <v>-0.005624006287121976</v>
+        <v>0.0008606449215526409</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -920,13 +920,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.001368250087288914</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C40">
-        <v>13.92881355932204</v>
+        <v>0.008526076111254888</v>
       </c>
       <c r="D40">
-        <v>-0.002760533455702515</v>
+        <v>0.005362999187131325</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -934,13 +934,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.008526076111254888</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C41">
-        <v>14.28365226899946</v>
+        <v>-0.005013100233036916</v>
       </c>
       <c r="D41">
-        <v>-0.00431834500531553</v>
+        <v>-0.003153297264059704</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -948,13 +948,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.005013100233036916</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C42">
-        <v>14.63849097867688</v>
+        <v>-0.01501046490293589</v>
       </c>
       <c r="D42">
-        <v>-0.006252285504646575</v>
+        <v>-0.009441753747265124</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -962,13 +962,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.01501046490293589</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C43">
-        <v>14.9933296883543</v>
+        <v>0.007657160909268157</v>
       </c>
       <c r="D43">
-        <v>-0.008308575856756258</v>
+        <v>0.004816441607638286</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -976,13 +976,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.007657160909268157</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C44">
-        <v>15.34816839803172</v>
+        <v>-0.01101858495606489</v>
       </c>
       <c r="D44">
-        <v>-0.00924919286351295</v>
+        <v>-0.006930815698995217</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -990,13 +990,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.01101858495606489</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C45">
-        <v>15.70300710770914</v>
+        <v>-0.00109262263038179</v>
       </c>
       <c r="D45">
-        <v>-0.003947665158254158</v>
+        <v>-0.0006872721052587906</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1004,13 +1004,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.00109262263038179</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C46">
-        <v>16.05784581738656</v>
+        <v>-0.004473973999295389</v>
       </c>
       <c r="D46">
-        <v>0.004109947682421669</v>
+        <v>-0.002814180709669547</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1018,13 +1018,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.004473973999295389</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C47">
-        <v>16.41268452706398</v>
+        <v>-0.01488918443232823</v>
       </c>
       <c r="D47">
-        <v>0.01065062545673831</v>
+        <v>-0.009365466947007121</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1032,13 +1032,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.01488918443232823</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C48">
-        <v>16.7675232367414</v>
+        <v>0.006826754890254527</v>
       </c>
       <c r="D48">
-        <v>0.009590602037416771</v>
+        <v>0.004294106743763422</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1046,13 +1046,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.006826754890254527</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C49">
-        <v>17.12236194641882</v>
+        <v>0.0267155852508747</v>
       </c>
       <c r="D49">
-        <v>0.01302549558256099</v>
+        <v>0.01680440804358372</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1060,13 +1060,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.0267155852508747</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C50">
-        <v>17.47720065609624</v>
+        <v>0.00566497635729668</v>
       </c>
       <c r="D50">
-        <v>0.01522997986489987</v>
+        <v>0.003563334786467053</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1074,13 +1074,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.00566497635729668</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C51">
-        <v>17.83203936577366</v>
+        <v>0.003677335070334742</v>
       </c>
       <c r="D51">
-        <v>0.0115594501400724</v>
+        <v>0.002313085730841789</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1088,13 +1088,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.003677335070334742</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C52">
-        <v>18.18687807545108</v>
+        <v>-0.001959562397772174</v>
       </c>
       <c r="D52">
-        <v>0.0135712066887075</v>
+        <v>-0.001232587113843923</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1102,13 +1102,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.001959562397772174</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C53">
-        <v>18.5417167851285</v>
+        <v>0.008832136946429259</v>
       </c>
       <c r="D53">
-        <v>0.01089976060481609</v>
+        <v>0.005555514945709429</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1116,13 +1116,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.008832136946429259</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C54">
-        <v>18.89655549480592</v>
+        <v>2.20933443815241e-05</v>
       </c>
       <c r="D54">
-        <v>0.01433929023778302</v>
+        <v>1.389696578039192e-05</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1130,13 +1130,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2.20933443815241e-05</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C55">
-        <v>19.25139420448334</v>
+        <v>-0.009523141551231795</v>
       </c>
       <c r="D55">
-        <v>0.01786923789682088</v>
+        <v>-0.005990164728974685</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1144,13 +1144,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.009523141551231795</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C56">
-        <v>19.60623291416076</v>
+        <v>0.002339234466491646</v>
       </c>
       <c r="D56">
-        <v>0.01479717708652977</v>
+        <v>0.001471405178490464</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1158,13 +1158,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.002339234466491646</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C57">
-        <v>19.96107162383818</v>
+        <v>0.002577951068804651</v>
       </c>
       <c r="D57">
-        <v>0.01329841550630345</v>
+        <v>0.001621560645959188</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1172,13 +1172,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.002577951068804651</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C58">
-        <v>20.3159103335156</v>
+        <v>-0.009388065249741118</v>
       </c>
       <c r="D58">
-        <v>0.008165866171701664</v>
+        <v>-0.005905200193631287</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1186,13 +1186,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.009388065249741118</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C59">
-        <v>20.67074904319302</v>
+        <v>0.01304356641256454</v>
       </c>
       <c r="D59">
-        <v>0.01288898730470282</v>
+        <v>0.008204552147445152</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1200,13 +1200,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.01304356641256454</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C60">
-        <v>21.02558775287044</v>
+        <v>-0.002080889777502648</v>
       </c>
       <c r="D60">
-        <v>0.01007720696972129</v>
+        <v>-0.001308903420475572</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.002080889777502648</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C61">
-        <v>21.38042646254786</v>
+        <v>0.004951599488824954</v>
       </c>
       <c r="D61">
-        <v>0.01128570809758629</v>
+        <v>0.003114612594005993</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1228,13 +1228,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.004951599488824954</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C62">
-        <v>21.73526517222528</v>
+        <v>-0.002693812488147707</v>
       </c>
       <c r="D62">
-        <v>0.01782001627774443</v>
+        <v>-0.00169443880112091</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1242,13 +1242,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.002693812488147707</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C63">
-        <v>22.0901038819027</v>
+        <v>-0.003344225474337215</v>
       </c>
       <c r="D63">
-        <v>0.023087502570112</v>
+        <v>-0.002103555992982407</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1256,13 +1256,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.003344225474337215</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C64">
-        <v>22.44494259158012</v>
+        <v>-0.003555796354922869</v>
       </c>
       <c r="D64">
-        <v>0.01965069889267237</v>
+        <v>-0.002236636491654441</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1270,13 +1270,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.003555796354922869</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C65">
-        <v>22.79978130125754</v>
+        <v>-0.001626541952391314</v>
       </c>
       <c r="D65">
-        <v>0.02535121461972332</v>
+        <v>-0.001023113452739952</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1284,13 +1284,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.001626541952391314</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C66">
-        <v>23.15462001093496</v>
+        <v>0.009167554022972091</v>
       </c>
       <c r="D66">
-        <v>0.02080265194681142</v>
+        <v>0.00576649611516845</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1298,13 +1298,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.009167554022972091</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C67">
-        <v>23.50945872061238</v>
+        <v>0.01393345562257764</v>
       </c>
       <c r="D67">
-        <v>0.01973656175306922</v>
+        <v>0.008764302617375539</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1312,13 +1312,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.01393345562257764</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C68">
-        <v>23.8642974302898</v>
+        <v>0.01131032792367037</v>
       </c>
       <c r="D68">
-        <v>0.01722902983432406</v>
+        <v>0.007114325355454192</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1326,13 +1326,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.01131032792367037</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C69">
-        <v>24.21913613996722</v>
+        <v>-0.001833022951593044</v>
       </c>
       <c r="D69">
-        <v>0.003643516659268046</v>
+        <v>-0.001152992357927671</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1340,13 +1340,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.001833022951593044</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C70">
-        <v>24.57397484964464</v>
+        <v>0.005939716604146383</v>
       </c>
       <c r="D70">
-        <v>0.002393645367241703</v>
+        <v>0.003736149537508531</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.005939716604146383</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C71">
-        <v>24.92881355932206</v>
+        <v>0.003812057556746851</v>
       </c>
       <c r="D71">
-        <v>-0.01673826680571993</v>
+        <v>0.002397827712462466</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.003812057556746851</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C72">
-        <v>25.28365226899948</v>
+        <v>-0.006347185455977566</v>
       </c>
       <c r="D72">
-        <v>-0.008089747517339412</v>
+        <v>-0.003992452095993473</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.006347185455977566</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C73">
-        <v>25.6384909786769</v>
+        <v>0.003478787222480406</v>
       </c>
       <c r="D73">
-        <v>-0.01514668295036213</v>
+        <v>0.002188196868397333</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.003478787222480406</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C74">
-        <v>25.99332968835432</v>
+        <v>-0.004619541319993203</v>
       </c>
       <c r="D74">
-        <v>-0.005611191366913328</v>
+        <v>-0.002905744215834444</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.004619541319993203</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C75">
-        <v>26.34816839803174</v>
+        <v>0.005947733460406113</v>
       </c>
       <c r="D75">
-        <v>-0.007330926202155989</v>
+        <v>0.003741192231597026</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.005947733460406113</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C76">
-        <v>26.70300710770916</v>
+        <v>0.006104086908834461</v>
       </c>
       <c r="D76">
-        <v>-0.01828184613828287</v>
+        <v>0.003839540335212886</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1438,13 +1438,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.006104086908834461</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C77">
-        <v>27.05784581738658</v>
+        <v>-0.005312295814706935</v>
       </c>
       <c r="D77">
-        <v>-0.01147150913889623</v>
+        <v>-0.00334149469982637</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.005312295814706935</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C78">
-        <v>27.412684527064</v>
+        <v>-0.002591701584554684</v>
       </c>
       <c r="D78">
-        <v>-0.03242977222853943</v>
+        <v>-0.001630209877308732</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1466,13 +1466,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.002591701584554684</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C79">
-        <v>27.76752323674142</v>
+        <v>-0.008875351769614959</v>
       </c>
       <c r="D79">
-        <v>-0.03063387297603008</v>
+        <v>-0.005582697562729584</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1480,13 +1480,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.008875351769614959</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C80">
-        <v>28.12236194641884</v>
+        <v>0.00816735676036906</v>
       </c>
       <c r="D80">
-        <v>-0.01998718320071826</v>
+        <v>0.005137360621147914</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1494,13 +1494,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.00816735676036906</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C81">
-        <v>28.47720065609626</v>
+        <v>-0.004862211338838129</v>
       </c>
       <c r="D81">
-        <v>-0.01431350210806315</v>
+        <v>-0.003058386427424428</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1508,13 +1508,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.004862211338838129</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C82">
-        <v>28.83203936577368</v>
+        <v>0.002089774871031125</v>
       </c>
       <c r="D82">
-        <v>-0.0224490984942072</v>
+        <v>0.001314492245715814</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1522,13 +1522,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.002089774871031125</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C83">
-        <v>29.1868780754511</v>
+        <v>0.01129931343845048</v>
       </c>
       <c r="D83">
-        <v>-0.01981642301599125</v>
+        <v>0.007107397118536041</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1536,13 +1536,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.01129931343845048</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C84">
-        <v>29.54171678512852</v>
+        <v>0.009108688633777007</v>
       </c>
       <c r="D84">
-        <v>-0.01621595322739027</v>
+        <v>0.005729469113499221</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1550,13 +1550,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.009108688633777007</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C85">
-        <v>29.89655549480594</v>
+        <v>-0.005943019659790494</v>
       </c>
       <c r="D85">
-        <v>-0.03106223780804245</v>
+        <v>-0.003738227197208406</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1564,13 +1564,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.005943019659790494</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C86">
-        <v>30.25139420448336</v>
+        <v>0.00985749557334259</v>
       </c>
       <c r="D86">
-        <v>-0.02485529374029754</v>
+        <v>0.006200477225062684</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1578,13 +1578,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.00985749557334259</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C87">
-        <v>30.60623291416078</v>
+        <v>-0.007865505256047456</v>
       </c>
       <c r="D87">
-        <v>-0.02889689644820747</v>
+        <v>-0.004947492579719784</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1592,13 +1592,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.007865505256047456</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C88">
-        <v>30.9610716238382</v>
+        <v>-0.00184351379222214</v>
       </c>
       <c r="D88">
-        <v>-0.02363772395457198</v>
+        <v>-0.001159591216421544</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1606,13 +1606,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.00184351379222214</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C89">
-        <v>31.31591033351562</v>
+        <v>-0.004336096236301934</v>
       </c>
       <c r="D89">
-        <v>-0.01514668295036213</v>
+        <v>-0.002727454023066166</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1620,13 +1620,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.004336096236301934</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C90">
-        <v>31.67074904319304</v>
+        <v>-0.02349245969960378</v>
       </c>
       <c r="D90">
-        <v>-0.01285831790228345</v>
+        <v>-0.0147770252843951</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1634,13 +1634,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.02349245969960378</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C91">
-        <v>32.02558775287046</v>
+        <v>-0.002161313347480487</v>
       </c>
       <c r="D91">
-        <v>-0.01929132310088391</v>
+        <v>-0.001359490763913428</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1648,13 +1648,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.002161313347480487</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C92">
-        <v>32.38042646254787</v>
+        <v>-0.03308345219707221</v>
       </c>
       <c r="D92">
-        <v>-0.0130659773059196</v>
+        <v>-0.02080986903297562</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1662,13 +1662,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.03308345219707221</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C93">
-        <v>32.73526517222529</v>
+        <v>0.01495526802893021</v>
       </c>
       <c r="D93">
-        <v>-0.002199727851978356</v>
+        <v>0.009407034283520964</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1676,13 +1676,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.01495526802893021</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C94">
-        <v>33.09010388190271</v>
+        <v>-0.0122030554993966</v>
       </c>
       <c r="D94">
-        <v>-0.002110558900264373</v>
+        <v>-0.007675861189814086</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1690,13 +1690,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.0122030554993966</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C95">
-        <v>33.44494259158012</v>
+        <v>0.01648904600463563</v>
       </c>
       <c r="D95">
-        <v>0.006712522909938289</v>
+        <v>0.01037179813615533</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1704,13 +1704,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.01648904600463563</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C96">
-        <v>33.79978130125754</v>
+        <v>-0.002973814885780079</v>
       </c>
       <c r="D96">
-        <v>0.009041119847413513</v>
+        <v>-0.001870563505064729</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1718,13 +1718,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.002973814885780079</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C97">
-        <v>34.15462001093496</v>
+        <v>-0.01893664537791651</v>
       </c>
       <c r="D97">
-        <v>0.01246684878647682</v>
+        <v>-0.01191136607784902</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1732,13 +1732,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.01893664537791651</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C98">
-        <v>34.50945872061237</v>
+        <v>0.01177663040308019</v>
       </c>
       <c r="D98">
-        <v>0.01514344521863432</v>
+        <v>0.007407634937189103</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1746,13 +1746,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.01177663040308019</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C99">
-        <v>34.86429743028979</v>
+        <v>-0.03624163067399966</v>
       </c>
       <c r="D99">
-        <v>0.01996955384542478</v>
+        <v>-0.02279639934112281</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1760,13 +1760,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.03624163067399966</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C100">
-        <v>35.2191361399672</v>
+        <v>0.003105520584352206</v>
       </c>
       <c r="D100">
-        <v>0.0171551140449377</v>
+        <v>0.001953407892701672</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1774,13 +1774,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.003105520584352206</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C101">
-        <v>35.57397484964462</v>
+        <v>0.01841056184317935</v>
       </c>
       <c r="D101">
-        <v>0.01770925231450029</v>
+        <v>0.01158045352999666</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1788,13 +1788,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.01841056184317935</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C102">
-        <v>35.92881355932204</v>
+        <v>0.009811092352575379</v>
       </c>
       <c r="D102">
-        <v>0.02021470730908803</v>
+        <v>0.00617128906957269</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1802,13 +1802,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.009811092352575379</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C103">
-        <v>36.28365226899945</v>
+        <v>-0.01406830700990014</v>
       </c>
       <c r="D103">
-        <v>0.0178815426470051</v>
+        <v>-0.008849125679140073</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1816,13 +1816,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.01406830700990014</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C104">
-        <v>36.63849097867687</v>
+        <v>0.004552498074763989</v>
       </c>
       <c r="D104">
-        <v>0.0141535571015899</v>
+        <v>0.002863573249381037</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1830,13 +1830,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.004552498074763989</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C105">
-        <v>36.99332968835429</v>
+        <v>0.00622603580140435</v>
       </c>
       <c r="D105">
-        <v>0.01514344521863433</v>
+        <v>0.003916247580514222</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1844,13 +1844,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.00622603580140435</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C106">
-        <v>37.3481683980317</v>
+        <v>-0.02567262183663388</v>
       </c>
       <c r="D106">
-        <v>0.009677971540143885</v>
+        <v>-0.01614837215206762</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1858,13 +1858,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.02567262183663388</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C107">
-        <v>37.70300710770912</v>
+        <v>0.01073322600996196</v>
       </c>
       <c r="D107">
-        <v>0.01389343045333659</v>
+        <v>0.006751321664925958</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1872,13 +1872,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.01073322600996196</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C108">
-        <v>38.05784581738654</v>
+        <v>-0.006988855519400872</v>
       </c>
       <c r="D108">
-        <v>0.01163408457727332</v>
+        <v>-0.004396069889646877</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1886,13 +1886,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.006988855519400872</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C109">
-        <v>38.41268452706395</v>
+        <v>0.009094312174150687</v>
       </c>
       <c r="D109">
-        <v>0.01300067829233428</v>
+        <v>0.005720426156307225</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1900,13 +1900,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.009094312174150687</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C110">
-        <v>38.76752323674137</v>
+        <v>0.01468295205552739</v>
       </c>
       <c r="D110">
-        <v>0.01239232175540846</v>
+        <v>0.009235744428147237</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1914,13 +1914,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.01468295205552739</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C111">
-        <v>39.12236194641878</v>
+        <v>0.003957106586792491</v>
       </c>
       <c r="D111">
-        <v>0.0002410794509856186</v>
+        <v>0.002489065207891588</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1928,13 +1928,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.003957106586792491</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C112">
-        <v>39.4772006560962</v>
+        <v>-0.01112413741226526</v>
       </c>
       <c r="D112">
-        <v>-0.01201546754196312</v>
+        <v>-0.006997209398677889</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1942,13 +1942,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.01112413741226526</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C113">
-        <v>39.83203936577362</v>
+        <v>0.01076504680535884</v>
       </c>
       <c r="D113">
-        <v>-0.01107034397819289</v>
+        <v>0.006771337308420161</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1956,13 +1956,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.01076504680535884</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C114">
-        <v>40.18687807545103</v>
+        <v>0.01879023074750386</v>
       </c>
       <c r="D114">
-        <v>1.040834085586084e-17</v>
+        <v>0.01181926960420265</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1970,13 +1970,13 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.01879023074750386</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C115">
-        <v>40.54171678512845</v>
+        <v>0.0001541935131639249</v>
       </c>
       <c r="D115">
-        <v>-0.002569288622308476</v>
+        <v>9.698947968191922e-05</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -1984,13 +1984,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.0001541935131639249</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C116">
-        <v>40.89655549480587</v>
+        <v>0.01525712655691702</v>
       </c>
       <c r="D116">
-        <v>-0.01439156183777989</v>
+        <v>0.009596906742914673</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -1998,13 +1998,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.01525712655691702</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C117">
-        <v>41.25139420448328</v>
+        <v>0.00402667672581547</v>
       </c>
       <c r="D117">
-        <v>-0.008638254066992456</v>
+        <v>0.002532825619382206</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2012,13 +2012,13 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.00402667672581547</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C118">
-        <v>41.6062329141607</v>
+        <v>0.005923868904008422</v>
       </c>
       <c r="D118">
-        <v>-0.002723942597426028</v>
+        <v>0.003726181153242575</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2026,13 +2026,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.005923868904008422</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C119">
-        <v>41.96107162383812</v>
+        <v>0.004628447450186535</v>
       </c>
       <c r="D119">
-        <v>0.004637775131320739</v>
+        <v>0.002911346273376983</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2040,13 +2040,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.004628447450186535</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C120">
-        <v>42.31591033351553</v>
+        <v>0.008345445693501929</v>
       </c>
       <c r="D120">
-        <v>0.005329836254259113</v>
+        <v>0.005249380592722868</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2054,13 +2054,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.008345445693501929</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C121">
-        <v>42.67074904319295</v>
+        <v>-0.004866810162997837</v>
       </c>
       <c r="D121">
-        <v>0.0129752212651453</v>
+        <v>-0.003061279140309986</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2068,13 +2068,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.004866810162997837</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C122">
-        <v>43.02558775287036</v>
+        <v>0.0009582318163445791</v>
       </c>
       <c r="D122">
-        <v>0.01155872016731736</v>
+        <v>0.0006027387493474981</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2082,13 +2082,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.0009582318163445791</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C123">
-        <v>43.38042646254778</v>
+        <v>0.004332504759378075</v>
       </c>
       <c r="D123">
-        <v>0.01221770051897194</v>
+        <v>0.002725194943089407</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2096,13 +2096,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.004332504759378075</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C124">
-        <v>43.7352651722252</v>
+        <v>-0.004034575366439697</v>
       </c>
       <c r="D124">
-        <v>0.01355820872051023</v>
+        <v>-0.002537793954486704</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2110,13 +2110,13 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-0.004034575366439697</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C125">
-        <v>44.09010388190261</v>
+        <v>-0.006446539711666865</v>
       </c>
       <c r="D125">
-        <v>0.0217322643430577</v>
+        <v>-0.004054947056810956</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2124,13 +2124,13 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-0.006446539711666865</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C126">
-        <v>44.44494259158003</v>
+        <v>0.001711742971879815</v>
       </c>
       <c r="D126">
-        <v>0.02010421856076257</v>
+        <v>0.001076705866447873</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2138,13 +2138,13 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.001711742971879815</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C127">
-        <v>44.79978130125745</v>
+        <v>-0.009451054110118484</v>
       </c>
       <c r="D127">
-        <v>0.02217215131852007</v>
+        <v>-0.005944820905737788</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2152,13 +2152,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>-0.009451054110118484</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C128">
-        <v>45.15462001093486</v>
+        <v>0.007289492664535047</v>
       </c>
       <c r="D128">
-        <v>0.02194003044547072</v>
+        <v>0.004585174085285914</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2166,13 +2166,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.007289492664535047</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C129">
-        <v>45.50945872061228</v>
+        <v>-0.003906925800810868</v>
       </c>
       <c r="D129">
-        <v>0.02478015106687073</v>
+        <v>-0.002457500920766141</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2180,13 +2180,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-0.003906925800810868</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C130">
-        <v>45.8642974302897</v>
+        <v>0.00236315311487445</v>
       </c>
       <c r="D130">
-        <v>0.02767597077527922</v>
+        <v>0.001486450281320935</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2194,13 +2194,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.00236315311487445</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C131">
-        <v>46.21913613996711</v>
+        <v>-0.001051987601981885</v>
       </c>
       <c r="D131">
-        <v>0.02930005213621106</v>
+        <v>-0.0006617122086036255</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2208,13 +2208,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>-0.001051987601981885</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C132">
-        <v>46.57397484964453</v>
+        <v>-0.02101227730292177</v>
       </c>
       <c r="D132">
-        <v>0.02846696017378527</v>
+        <v>-0.01321696224909276</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2222,13 +2222,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.02101227730292177</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C133">
-        <v>46.92881355932195</v>
+        <v>-0.02119437319576711</v>
       </c>
       <c r="D133">
-        <v>0.02528050054191018</v>
+        <v>-0.01333150264406066</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2236,13 +2236,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-0.02119437319576711</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C134">
-        <v>47.28365226899936</v>
+        <v>0.001634334820254324</v>
       </c>
       <c r="D134">
-        <v>0.03344760411473236</v>
+        <v>0.001028015255570398</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2250,13 +2250,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.001634334820254324</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C135">
-        <v>47.63849097867678</v>
+        <v>0.01914315686255819</v>
       </c>
       <c r="D135">
-        <v>0.0385918515654128</v>
+        <v>0.01204126415872642</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2264,13 +2264,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.01914315686255819</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C136">
-        <v>47.99332968835419</v>
+        <v>-0.004442887702398757</v>
       </c>
       <c r="D136">
-        <v>0.04103255781161694</v>
+        <v>-0.002794627074115264</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2278,13 +2278,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-0.004442887702398757</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C137">
-        <v>48.34816839803161</v>
+        <v>-0.02044341450289178</v>
       </c>
       <c r="D137">
-        <v>0.04340413556748424</v>
+        <v>-0.01285914105510613</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2292,13 +2292,13 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-0.02044341450289178</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C138">
-        <v>48.71427009294686</v>
+        <v>0.009917584675140034</v>
       </c>
       <c r="D138">
-        <v>0.04725340884449314</v>
+        <v>0.00626260768767759</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2306,13 +2306,13 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.009917584675140034</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C139">
-        <v>49.08037178786211</v>
+        <v>0.01019512376730525</v>
       </c>
       <c r="D139">
-        <v>0.04734697421984526</v>
+        <v>0.006437863912772576</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2320,13 +2320,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.01019512376730525</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C140">
-        <v>49.43521049753953</v>
+        <v>0.01273009380168144</v>
       </c>
       <c r="D140">
-        <v>0.04583638335626788</v>
+        <v>0.008007374297351273</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2334,13 +2334,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.01273009380168144</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C141">
-        <v>49.79004920721695</v>
+        <v>0.001196731976981447</v>
       </c>
       <c r="D141">
-        <v>0.04604740050758768</v>
+        <v>0.0007527580725315546</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2348,13 +2348,13 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.001196731976981447</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C142">
-        <v>50.14488791689436</v>
+        <v>0.01322061941583286</v>
       </c>
       <c r="D142">
-        <v>0.04272079743865043</v>
+        <v>0.008315920507311619</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2362,13 +2362,13 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.01322061941583286</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C143">
-        <v>50.49972662657178</v>
+        <v>-0.002449454395014428</v>
       </c>
       <c r="D143">
-        <v>0.04323926579577258</v>
+        <v>-0.001540734771536561</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2376,13 +2376,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-0.002449454395014428</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C144">
-        <v>50.85456533624919</v>
+        <v>0.001139527756853553</v>
       </c>
       <c r="D144">
-        <v>0.04585983350921941</v>
+        <v>0.0007167759651654945</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2390,13 +2390,13 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.001139527756853553</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C145">
-        <v>51.20940404592661</v>
+        <v>0.00231804529544366</v>
       </c>
       <c r="D145">
-        <v>0.04671511395655006</v>
+        <v>0.001458076948056733</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2404,13 +2404,13 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.00231804529544366</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C146">
-        <v>51.56424275560403</v>
+        <v>0.01413481182643839</v>
       </c>
       <c r="D146">
-        <v>0.04762757954919334</v>
+        <v>0.008890957967801457</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2418,13 +2418,13 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.01413481182643839</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C147">
-        <v>51.91908146528144</v>
+        <v>-0.002815263541159574</v>
       </c>
       <c r="D147">
-        <v>0.04473315215087265</v>
+        <v>-0.001770832899658112</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2432,13 +2432,13 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>-0.002815263541159574</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C148">
-        <v>52.27392017495886</v>
+        <v>0.003575928737260092</v>
       </c>
       <c r="D148">
-        <v>0.04416898723792808</v>
+        <v>0.002249299989927348</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2446,13 +2446,13 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.003575928737260092</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C149">
-        <v>52.62875888463628</v>
+        <v>-0.0004013900826036476</v>
       </c>
       <c r="D149">
-        <v>0.04853860766515095</v>
+        <v>-0.0002524789432602315</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2460,13 +2460,13 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>-0.0004013900826036476</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C150">
-        <v>52.98359759431369</v>
+        <v>0.004911218176340881</v>
       </c>
       <c r="D150">
-        <v>0.05229599531572651</v>
+        <v>0.003089212287557696</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2474,13 +2474,13 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.004911218176340881</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C151">
-        <v>53.34969928922894</v>
+        <v>0.004991830492348193</v>
       </c>
       <c r="D151">
-        <v>0.05161148125111743</v>
+        <v>0.00315216628251493</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2488,13 +2488,13 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.004991830492348193</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C152">
-        <v>53.7158009841442</v>
+        <v>0.002799600691995252</v>
       </c>
       <c r="D152">
-        <v>0.05378982820150396</v>
+        <v>0.001767849873776793</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2502,13 +2502,13 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.002799600691995252</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C153">
-        <v>54.07063969382161</v>
+        <v>-0.001440606556496249</v>
       </c>
       <c r="D153">
-        <v>0.05255103059958404</v>
+        <v>-0.0009061579665312551</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2516,13 +2516,13 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-0.001440606556496249</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C154">
-        <v>54.42547840349903</v>
+        <v>-0.005510117543714443</v>
       </c>
       <c r="D154">
-        <v>0.04880697039230359</v>
+        <v>-0.003465926825228548</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2530,13 +2530,13 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-0.005510117543714443</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C155">
-        <v>54.78031711317644</v>
+        <v>0.01412279014231821</v>
       </c>
       <c r="D155">
-        <v>0.04113895611250998</v>
+        <v>0.00888339619127927</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2544,13 +2544,13 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.01412279014231821</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C156">
-        <v>55.1464188080917</v>
+        <v>0.008867683029412099</v>
       </c>
       <c r="D156">
-        <v>0.0468204719558286</v>
+        <v>0.005599631536405326</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2558,13 +2558,13 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.008867683029412099</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C157">
-        <v>55.50125751776911</v>
+        <v>0.004220539363415376</v>
       </c>
       <c r="D157">
-        <v>0.04897026066496124</v>
+        <v>0.002654767431101549</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2572,13 +2572,13 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.004220539363415376</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C158">
-        <v>55.85609622744653</v>
+        <v>0.004101000391835363</v>
       </c>
       <c r="D158">
-        <v>0.05673144866501918</v>
+        <v>0.0025795760536087</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2586,13 +2586,13 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.004101000391835363</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C159">
-        <v>56.21093493712394</v>
+        <v>0.006656273941784363</v>
       </c>
       <c r="D159">
-        <v>0.05499135534764852</v>
+        <v>0.004186872281375742</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2600,13 +2600,13 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.006656273941784363</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C160">
-        <v>56.56577364680136</v>
+        <v>0.0001617959352300247</v>
       </c>
       <c r="D160">
-        <v>0.05497981408061161</v>
+        <v>0.0001017714899324377</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2614,13 +2614,13 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.0001617959352300247</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C161">
-        <v>56.92061235647878</v>
+        <v>-0.002612157121185454</v>
       </c>
       <c r="D161">
-        <v>0.05378982820150396</v>
+        <v>-0.00164307664332063</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2628,13 +2628,13 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>-0.002612157121185454</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C162">
-        <v>57.27545106615619</v>
+        <v>0.0003648969206704322</v>
       </c>
       <c r="D162">
-        <v>0.0652408586796091</v>
+        <v>0.0002295243278861868</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2642,13 +2642,13 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.0003648969206704322</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C163">
-        <v>57.63028977583361</v>
+        <v>-0.005752457601460037</v>
       </c>
       <c r="D163">
-        <v>0.0625132196540896</v>
+        <v>-0.003618361487521011</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2656,13 +2656,13 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>-0.005752457601460037</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C164">
-        <v>57.98512848551103</v>
+        <v>0.0008965503789415408</v>
       </c>
       <c r="D164">
-        <v>0.06483253209828459</v>
+        <v>0.0005639404212142416</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2670,13 +2670,13 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.0008965503789415408</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C165">
-        <v>58.33996719518844</v>
+        <v>0.004531560980064242</v>
       </c>
       <c r="D165">
-        <v>0.06765090925911202</v>
+        <v>0.002850403577847445</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2684,13 +2684,13 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.004531560980064242</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C166">
-        <v>58.69480590486586</v>
+        <v>0.001478975522077874</v>
       </c>
       <c r="D166">
-        <v>0.06490060655354568</v>
+        <v>0.0009302924838098068</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2698,13 +2698,13 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.001478975522077874</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C167">
-        <v>59.04964461454328</v>
+        <v>0.001577861718304874</v>
       </c>
       <c r="D167">
-        <v>0.06507075764100463</v>
+        <v>0.0009924930298832633</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2712,13 +2712,13 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.001577861718304874</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C168">
-        <v>59.40448332422069</v>
+        <v>-0.005005127015247801</v>
       </c>
       <c r="D168">
-        <v>0.06539957451975162</v>
+        <v>-0.003148282019067298</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2726,13 +2726,13 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>-0.005005127015247801</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C169">
-        <v>59.75932203389811</v>
+        <v>-0.0009755701761502422</v>
       </c>
       <c r="D169">
-        <v>0.06438985270330889</v>
+        <v>-0.0006136447755582207</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2740,13 +2740,13 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>-0.0009755701761502422</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C170">
-        <v>60.11416074357552</v>
+        <v>0.007556073183718759</v>
       </c>
       <c r="D170">
-        <v>0.06496867299627669</v>
+        <v>0.004752856274493684</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2754,13 +2754,13 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.007556073183718759</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C171">
-        <v>60.46899945325294</v>
+        <v>0.00649738267664457</v>
       </c>
       <c r="D171">
-        <v>0.06813622916778733</v>
+        <v>0.004086927862082777</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2768,13 +2768,13 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.00649738267664457</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C172">
-        <v>60.82383816293036</v>
+        <v>-0.001183681386888402</v>
       </c>
       <c r="D172">
-        <v>0.0673459652080457</v>
+        <v>-0.0007445491024089222</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2782,13 +2782,13 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>-0.001183681386888402</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C173">
-        <v>61.17867687260777</v>
+        <v>0.003766860131398708</v>
       </c>
       <c r="D173">
-        <v>0.06509344067055409</v>
+        <v>0.002369398016053523</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2796,13 +2796,13 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.003766860131398708</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C174">
-        <v>61.53351558228519</v>
+        <v>-0.002142164404396851</v>
       </c>
       <c r="D174">
-        <v>0.06678082903534815</v>
+        <v>-0.001347445860155602</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2810,13 +2810,13 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-0.002142164404396851</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C175">
-        <v>61.88835429196261</v>
+        <v>-0.006474336478795806</v>
       </c>
       <c r="D175">
-        <v>0.07220587823061259</v>
+        <v>-0.004072431540596011</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2824,13 +2824,13 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>-0.006474336478795806</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C176">
-        <v>62.24319300164002</v>
+        <v>-0.01325975059777562</v>
       </c>
       <c r="D176">
-        <v>0.06579617364740865</v>
+        <v>-0.008340534467380954</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2838,13 +2838,13 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-0.01325975059777562</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C177">
-        <v>62.59803171131744</v>
+        <v>0.009824640428518272</v>
       </c>
       <c r="D177">
-        <v>0.06546758226151239</v>
+        <v>0.006179810963972978</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2852,13 +2852,13 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.009824640428518272</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C178">
-        <v>62.95287042099486</v>
+        <v>0.003717476400132647</v>
       </c>
       <c r="D178">
-        <v>0.06158973003521763</v>
+        <v>0.002338335085441423</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2866,13 +2866,13 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.003717476400132647</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C179">
-        <v>63.30770913067227</v>
+        <v>0.01342086927177544</v>
       </c>
       <c r="D179">
-        <v>0.06470770811372316</v>
+        <v>0.008441879952269608</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2880,13 +2880,13 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.01342086927177544</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C180">
-        <v>63.66254784034969</v>
+        <v>-0.003009019357983256</v>
       </c>
       <c r="D180">
-        <v>0.06913943645618748</v>
+        <v>-0.001892707519890001</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2894,13 +2894,13 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-0.003009019357983256</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C181">
-        <v>64.01738655002711</v>
+        <v>-1.995749054550799e-05</v>
       </c>
       <c r="D181">
-        <v>0.06460555935491348</v>
+        <v>-1.255348933977406e-05</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2908,13 +2908,13 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>-1.995749054550799e-05</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C182">
-        <v>64.37222525970454</v>
+        <v>-0.002057757770929314</v>
       </c>
       <c r="D182">
-        <v>0.06880147110452275</v>
+        <v>-0.001294353124321665</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2922,13 +2922,13 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>-0.002057757770929314</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C183">
-        <v>64.72706396938196</v>
+        <v>0.0198014508954838</v>
       </c>
       <c r="D183">
-        <v>0.0674137444505957</v>
+        <v>0.01245533861893597</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2936,13 +2936,13 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.0198014508954838</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C184">
-        <v>65.08190267905938</v>
+        <v>-0.004716711769102488</v>
       </c>
       <c r="D184">
-        <v>0.06423085945875667</v>
+        <v>-0.002966865537388021</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2950,13 +2950,13 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-0.004716711769102488</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C185">
-        <v>65.43674138873681</v>
+        <v>0.004010621713288032</v>
       </c>
       <c r="D185">
-        <v>0.06867750097075664</v>
+        <v>0.002522726833257089</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2964,13 +2964,13 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.004010621713288032</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C186">
-        <v>65.79158009841423</v>
+        <v>0.004873618759620335</v>
       </c>
       <c r="D186">
-        <v>0.07116309125695529</v>
+        <v>0.00306556182529608</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2978,13 +2978,13 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.004873618759620335</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C187">
-        <v>66.14641880809165</v>
+        <v>-0.004755902455776173</v>
       </c>
       <c r="D187">
-        <v>0.06614722016330406</v>
+        <v>-0.002991516926612267</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -2992,13 +2992,13 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>-0.004755902455776173</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C188">
-        <v>66.50125751776908</v>
+        <v>0.0002942301489436971</v>
       </c>
       <c r="D188">
-        <v>0.06768478200750475</v>
+        <v>0.0001850741219083874</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3006,13 +3006,13 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.0002942301489436971</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C189">
-        <v>66.8560962274465</v>
+        <v>0.0005685995937714239</v>
       </c>
       <c r="D189">
-        <v>0.06632832211910895</v>
+        <v>0.0003576556342458607</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3020,13 +3020,13 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.0005685995937714239</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C190">
-        <v>67.21093493712392</v>
+        <v>-0.001746039974709568</v>
       </c>
       <c r="D190">
-        <v>0.05839748556172532</v>
+        <v>-0.001098279072679776</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3034,13 +3034,13 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>-0.001746039974709568</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C191">
-        <v>67.56577364680135</v>
+        <v>0.001000912680341415</v>
       </c>
       <c r="D191">
-        <v>0.04943655039896024</v>
+        <v>0.0006295854999434651</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3048,13 +3048,13 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.001000912680341415</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C192">
-        <v>67.92061235647877</v>
+        <v>0.005477429136948153</v>
       </c>
       <c r="D192">
-        <v>0.05593695627492918</v>
+        <v>0.003445365444280421</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3062,13 +3062,13 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.005477429136948153</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C193">
-        <v>68.27545106615619</v>
+        <v>-0.001366547143788921</v>
       </c>
       <c r="D193">
-        <v>0.05501153497401937</v>
+        <v>-0.0008595737506544436</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3076,13 +3076,13 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>-0.001366547143788921</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C194">
-        <v>68.63028977583362</v>
+        <v>-0.003895130146172932</v>
       </c>
       <c r="D194">
-        <v>0.06219125321303909</v>
+        <v>-0.002450081319368093</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3090,13 +3090,13 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-0.003895130146172932</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C195">
-        <v>68.98512848551104</v>
+        <v>0.002917880439753162</v>
       </c>
       <c r="D195">
-        <v>0.05038836833980193</v>
+        <v>0.001835380100100866</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3104,13 +3104,13 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.002917880439753162</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C196">
-        <v>69.33996719518846</v>
+        <v>0.009381150932312288</v>
       </c>
       <c r="D196">
-        <v>0.05382162041210042</v>
+        <v>0.005900851009051356</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3118,13 +3118,13 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.009381150932312288</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C197">
-        <v>69.69480590486589</v>
+        <v>-0.01108384531868545</v>
       </c>
       <c r="D197">
-        <v>0.05979264372406194</v>
+        <v>-0.006971865211938683</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3132,13 +3132,13 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>-0.01108384531868545</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C198">
-        <v>70.04964461454331</v>
+        <v>-0.0005682096650554413</v>
       </c>
       <c r="D198">
-        <v>0.0710703990397773</v>
+        <v>-0.0003574103646330205</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3146,13 +3146,13 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>-0.0005682096650554413</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C199">
-        <v>70.40448332422073</v>
+        <v>-0.006705693481974251</v>
       </c>
       <c r="D199">
-        <v>0.07009303151876803</v>
+        <v>-0.004217957736209637</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3160,13 +3160,13 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>-0.006705693481974251</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C200">
-        <v>70.75932203389816</v>
+        <v>0.005391697274125029</v>
       </c>
       <c r="D200">
-        <v>0.06802049819650773</v>
+        <v>0.003391439124056193</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3174,13 +3174,13 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.005391697274125029</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C201">
-        <v>71.11416074357558</v>
+        <v>0.007663471975139835</v>
       </c>
       <c r="D201">
-        <v>0.06922662498536736</v>
+        <v>0.004820411340103502</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3188,13 +3188,13 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.007663471975139835</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C202">
-        <v>71.46899945325301</v>
+        <v>-0.007840110543648748</v>
       </c>
       <c r="D202">
-        <v>0.07155285645377547</v>
+        <v>-0.004931519015776117</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3202,13 +3202,13 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>-0.007840110543648748</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C203">
-        <v>71.82383816293043</v>
+        <v>0.007255691147668664</v>
       </c>
       <c r="D203">
-        <v>0.0719788794050235</v>
+        <v>0.004563912545380245</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3216,13 +3216,13 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.007255691147668664</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C204">
-        <v>72.17867687260785</v>
+        <v>-0.002399696799919582</v>
       </c>
       <c r="D204">
-        <v>0.07172106090230296</v>
+        <v>-0.001509436676309026</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3230,13 +3230,13 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>-0.002399696799919582</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C205">
-        <v>72.53351558228528</v>
+        <v>-0.005503936173463231</v>
       </c>
       <c r="D205">
-        <v>0.07216936705815045</v>
+        <v>-0.003462038672788898</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3244,13 +3244,13 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>-0.005503936173463231</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C206">
-        <v>72.8883542919627</v>
+        <v>0.007689260256362296</v>
       </c>
       <c r="D206">
-        <v>0.0670153512822642</v>
+        <v>0.004836632463329343</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3258,13 +3258,13 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.007689260256362296</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C207">
-        <v>73.24319300164012</v>
+        <v>0.004298154134910526</v>
       </c>
       <c r="D207">
-        <v>0.07126118612914172</v>
+        <v>0.002703588008235314</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3272,13 +3272,13 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.004298154134910526</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C208">
-        <v>73.59803171131755</v>
+        <v>-0.008673588403150134</v>
       </c>
       <c r="D208">
-        <v>0.07050889545476126</v>
+        <v>-0.005455786102378513</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3286,13 +3286,13 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>-0.008673588403150134</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C209">
-        <v>73.95287042099497</v>
+        <v>0.002658796115766471</v>
       </c>
       <c r="D209">
-        <v>0.06486366811087683</v>
+        <v>0.001672413103230534</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3300,13 +3300,13 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.002658796115766471</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C210">
-        <v>74.30770913067239</v>
+        <v>-0.00234562941065608</v>
       </c>
       <c r="D210">
-        <v>0.0456106572465687</v>
+        <v>-0.001475427671359175</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3314,13 +3314,13 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>-0.00234562941065608</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C211">
-        <v>74.66254784034982</v>
+        <v>-0.01371423043117481</v>
       </c>
       <c r="D211">
-        <v>0.02557309664365411</v>
+        <v>-0.008626407469836323</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3328,13 +3328,13 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>-0.01371423043117481</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C212">
-        <v>75.01738655002724</v>
+        <v>-0.01549550653475062</v>
       </c>
       <c r="D212">
-        <v>0.02166187177535402</v>
+        <v>-0.009746850469743757</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3342,13 +3342,13 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>-0.01549550653475062</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C213">
-        <v>75.37222525970466</v>
+        <v>0.01124068860001959</v>
       </c>
       <c r="D213">
-        <v>-0.004190421324228224</v>
+        <v>0.00707052142604304</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3356,13 +3356,13 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.01124068860001959</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C214">
-        <v>75.73832695461992</v>
+        <v>-0.001595246504724201</v>
       </c>
       <c r="D214">
-        <v>-0.01925357036686874</v>
+        <v>-0.00100734234710081</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3370,13 +3370,13 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>-0.001595246504724201</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C215">
-        <v>76.09316566429735</v>
+        <v>0.01241537505512635</v>
       </c>
       <c r="D215">
-        <v>0.008242375536094949</v>
+        <v>0.007809412613696834</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3384,13 +3384,13 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.01241537505512635</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C216">
-        <v>76.44800437397477</v>
+        <v>-0.02040988762446538</v>
       </c>
       <c r="D216">
-        <v>-0.01381153747519646</v>
+        <v>-0.01283805226591382</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3398,13 +3398,13 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>-0.02040988762446538</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C217">
-        <v>76.80284308365219</v>
+        <v>0.005936878122141387</v>
       </c>
       <c r="D217">
-        <v>0.004898109497133298</v>
+        <v>0.003734364099930114</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3412,13 +3412,13 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.005936878122141387</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C218">
-        <v>77.15768179332962</v>
+        <v>0.01032526506096243</v>
       </c>
       <c r="D218">
-        <v>-0.02413068019430175</v>
+        <v>0.00649470957170553</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3426,13 +3426,13 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.01032526506096243</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C219">
-        <v>77.51252050300704</v>
+        <v>0.01950181850641375</v>
       </c>
       <c r="D219">
-        <v>-0.04347480945697221</v>
+        <v>0.01226686642632915</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3440,13 +3440,13 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.01950181850641375</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C220">
-        <v>77.86735921268446</v>
+        <v>-0.001690091997494036</v>
       </c>
       <c r="D220">
-        <v>-0.1105204847688104</v>
+        <v>-0.001063087156443836</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3454,13 +3454,13 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>-0.001690091997494036</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C221">
-        <v>78.22219792236189</v>
+        <v>-0.003583884165574425</v>
       </c>
       <c r="D221">
-        <v>-0.07649425463179496</v>
+        <v>-0.002254304045137074</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3468,13 +3468,13 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>-0.003583884165574425</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C222">
-        <v>78.57703663203931</v>
+        <v>0.002085669095807319</v>
       </c>
       <c r="D222">
-        <v>-0.1094432109453604</v>
+        <v>0.001311909666238398</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3482,13 +3482,13 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.002085669095807319</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C223">
-        <v>78.93187534171673</v>
+        <v>0.004022586288743746</v>
       </c>
       <c r="D223">
-        <v>-0.1755568736393859</v>
+        <v>0.002530252687777513</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3496,13 +3496,13 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.004022586288743746</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C224">
-        <v>79.28671405139416</v>
+        <v>0.0007366911271100562</v>
       </c>
       <c r="D224">
-        <v>-0.1034776053868153</v>
+        <v>0.0004633871272439993</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3510,13 +3510,13 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.0007366911271100562</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C225">
-        <v>79.64155276107158</v>
+        <v>-0.0004458271621343712</v>
       </c>
       <c r="D225">
-        <v>-0.1909045028868638</v>
+        <v>-0.0002804303734717411</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3524,13 +3524,13 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>-0.0004458271621343712</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C226">
-        <v>79.996391470749</v>
+        <v>0.0007752238847089643</v>
       </c>
       <c r="D226">
-        <v>-0.1583756714384388</v>
+        <v>0.0004876246715708768</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3538,13 +3538,13 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.0007752238847089643</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C227">
-        <v>80.35123018042643</v>
+        <v>-0.008912472156623608</v>
       </c>
       <c r="D227">
-        <v>-0.2121125597659935</v>
+        <v>-0.005606046709834967</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3552,13 +3552,13 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>-0.008912472156623608</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C228">
-        <v>80.70606889010385</v>
+        <v>0.007342019601775718</v>
       </c>
       <c r="D228">
-        <v>-0.1991908094665239</v>
+        <v>0.004618214128331314</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3566,13 +3566,13 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.007342019601775718</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C229">
-        <v>81.06090759978127</v>
+        <v>-0.00130088264775452</v>
       </c>
       <c r="D229">
-        <v>-0.2184788603693713</v>
+        <v>-0.0008182700331810549</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3580,13 +3580,13 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>-0.00130088264775452</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C230">
-        <v>81.4157463094587</v>
+        <v>-0.009761889312713379</v>
       </c>
       <c r="D230">
-        <v>-0.2550470025018182</v>
+        <v>-0.006140339795916082</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3594,13 +3594,13 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>-0.009761889312713379</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C231">
-        <v>81.77058501913612</v>
+        <v>-0.03329285953336303</v>
       </c>
       <c r="D231">
-        <v>-0.1854102786043946</v>
+        <v>-0.0209415886375924</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3608,13 +3608,13 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>-0.03329285953336303</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C232">
-        <v>82.12542372881354</v>
+        <v>-0.03464952548179312</v>
       </c>
       <c r="D232">
-        <v>-0.1702054408108147</v>
+        <v>-0.02179494700358621</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3622,13 +3622,13 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>-0.03464952548179312</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C233">
-        <v>82.48026243849097</v>
+        <v>-0.006763402413339392</v>
       </c>
       <c r="D233">
-        <v>-0.1340670362862119</v>
+        <v>-0.004254257312704494</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3636,13 +3636,13 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>-0.006763402413339392</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C234">
-        <v>82.83510114816839</v>
+        <v>-0.04470452797465096</v>
       </c>
       <c r="D234">
-        <v>-0.1535777521033264</v>
+        <v>-0.02811965833528733</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3650,13 +3650,13 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>-0.04470452797465096</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C235">
-        <v>83.18993985784581</v>
+        <v>-0.02604763009490796</v>
       </c>
       <c r="D235">
-        <v>-0.1420138973696548</v>
+        <v>-0.01638425662671318</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3664,13 +3664,13 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>-0.02604763009490796</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C236">
-        <v>83.54477856752324</v>
+        <v>0.04754677962506904</v>
       </c>
       <c r="D236">
-        <v>-0.1596484345306461</v>
+        <v>0.0299074670637003</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3678,13 +3678,13 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.04754677962506904</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C237">
-        <v>83.9108802624385</v>
+        <v>-0.03801666074918142</v>
       </c>
       <c r="D237">
-        <v>-0.1953447899134544</v>
+        <v>-0.02400619098967186</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3692,13 +3692,13 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>-0.03801666074918142</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C238">
-        <v>84.26571897211592</v>
+        <v>0.0323532590802893</v>
       </c>
       <c r="D238">
-        <v>-0.1812016796214183</v>
+        <v>0.02035056922839304</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3706,13 +3706,13 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.0323532590802893</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C239">
-        <v>84.63182066703118</v>
+        <v>-0.05003999286174743</v>
       </c>
       <c r="D239">
-        <v>-0.1943116113667355</v>
+        <v>-0.03159850450007741</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3720,13 +3720,13 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>-0.05003999286174743</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C240">
-        <v>84.9866593767086</v>
+        <v>-0.03345042408567966</v>
       </c>
       <c r="D240">
-        <v>-0.152583160842635</v>
+        <v>-0.02104069853937703</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3734,13 +3734,13 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-0.03345042408567966</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C241">
-        <v>85.35276107162386</v>
+        <v>-0.115573716633639</v>
       </c>
       <c r="D241">
-        <v>-0.1471431820797813</v>
+        <v>-0.07298075791554351</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3748,13 +3748,13 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>-0.115573716633639</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C242">
-        <v>85.71886276653912</v>
+        <v>0.05865460914034593</v>
       </c>
       <c r="D242">
-        <v>-0.1221585840666825</v>
+        <v>0.0370383332386187</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3762,13 +3762,13 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.05865460914034593</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C243">
-        <v>86.08496446145438</v>
+        <v>-0.05679759839313281</v>
       </c>
       <c r="D243">
-        <v>-0.09280206511903784</v>
+        <v>-0.03586569593200226</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3776,13 +3776,13 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>-0.05679759839313281</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C244">
-        <v>86.45106615636963</v>
+        <v>-0.1139671079793292</v>
       </c>
       <c r="D244">
-        <v>-0.1139502749603959</v>
+        <v>-0.07196624076856205</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3790,13 +3790,13 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>-0.1139671079793292</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C245">
-        <v>86.81716785128489</v>
+        <v>0.1242506527891107</v>
       </c>
       <c r="D245">
-        <v>-0.1120320369028169</v>
+        <v>0.07845993947564221</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3804,13 +3804,13 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.1242506527891107</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C246">
-        <v>87.18326954620015</v>
+        <v>-0.1507069834233548</v>
       </c>
       <c r="D246">
-        <v>-0.1379299557521046</v>
+        <v>-0.09516618651511277</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3818,13 +3818,13 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>-0.1507069834233548</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C247">
-        <v>87.54937124111541</v>
+        <v>0.05607338475983514</v>
       </c>
       <c r="D247">
-        <v>-0.1480791775236971</v>
+        <v>0.03540838036415238</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3832,13 +3832,13 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.05607338475983514</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C248">
-        <v>87.91547293603067</v>
+        <v>-0.09263195389495493</v>
       </c>
       <c r="D248">
-        <v>-0.1166527363007406</v>
+        <v>-0.05849383752087296</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3846,13 +3846,13 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>-0.09263195389495493</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C249">
-        <v>88.28157463094593</v>
+        <v>0.02227458669892535</v>
       </c>
       <c r="D249">
-        <v>-0.1281140094630084</v>
+        <v>0.01406562207128937</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3860,13 +3860,13 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.02227458669892535</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C250">
-        <v>88.64767632586118</v>
+        <v>-0.03324885190719051</v>
       </c>
       <c r="D250">
-        <v>-0.1469955312797889</v>
+        <v>-0.02099548654042471</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3874,13 +3874,13 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>-0.03324885190719051</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C251">
-        <v>89.01377802077644</v>
+        <v>-0.06303637150311214</v>
       </c>
       <c r="D251">
-        <v>-0.1407142904699829</v>
+        <v>-0.03980526284471744</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3888,13 +3888,13 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>-0.06303637150311214</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C252">
-        <v>89.3798797156917</v>
+        <v>0.1200401809301299</v>
       </c>
       <c r="D252">
-        <v>-0.1432186313994187</v>
+        <v>0.07580117382891169</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3902,13 +3902,13 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.1200401809301299</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C253">
-        <v>89.74598141060696</v>
+        <v>0.0262101859134436</v>
       </c>
       <c r="D253">
-        <v>-0.1350785653781047</v>
+        <v>0.01655081526134518</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3916,13 +3916,13 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.0262101859134436</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C254">
-        <v>90.11208310552222</v>
+        <v>0.06229558736923924</v>
       </c>
       <c r="D254">
-        <v>-0.1145083729280769</v>
+        <v>0.03933748358558683</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3930,13 +3930,13 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.06229558736923924</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C255">
-        <v>90.47818480043748</v>
+        <v>-0.0336326829535043</v>
       </c>
       <c r="D255">
-        <v>-0.1092587361333696</v>
+        <v>-0.021237862415212</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3944,13 +3944,13 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>-0.0336326829535043</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C256">
-        <v>90.84428649535273</v>
+        <v>0.01993383859534248</v>
       </c>
       <c r="D256">
-        <v>-0.09207043957778709</v>
+        <v>0.01258752155099229</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -3958,13 +3958,13 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.01993383859534248</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C257">
-        <v>91.21038819026799</v>
+        <v>-0.0303985155094697</v>
       </c>
       <c r="D257">
-        <v>-0.1078463747809137</v>
+        <v>-0.01919559884381863</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -3972,13 +3972,13 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>-0.0303985155094697</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C258">
-        <v>91.57648988518325</v>
+        <v>-0.06153358054308278</v>
       </c>
       <c r="D258">
-        <v>-0.1274157869141391</v>
+        <v>-0.03885630293890051</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -3986,13 +3986,13 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>-0.06153358054308278</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C259">
-        <v>91.94259158009851</v>
+        <v>0.0243799740044004</v>
       </c>
       <c r="D259">
-        <v>-0.1327363409418687</v>
+        <v>0.015395100483292</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4000,13 +4000,13 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.0243799740044004</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C260">
-        <v>92.30869327501377</v>
+        <v>-0.02259897494614549</v>
       </c>
       <c r="D260">
-        <v>-0.1331366223339137</v>
+        <v>-0.01427046189846276</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4014,13 +4014,13 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>-0.02259897494614549</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C261">
-        <v>92.67479496992902</v>
+        <v>0.07193174047397033</v>
       </c>
       <c r="D261">
-        <v>-0.1466836040731587</v>
+        <v>0.04542237708436355</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4028,13 +4028,13 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.07193174047397033</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C262">
-        <v>93.04089666484428</v>
+        <v>0.009377466348229113</v>
       </c>
       <c r="D262">
-        <v>-0.1339540538076163</v>
+        <v>0.005921541863974891</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4042,13 +4042,13 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.009377466348229113</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C263">
-        <v>93.40699835975954</v>
+        <v>0.04306859223269566</v>
       </c>
       <c r="D263">
-        <v>-0.1213879641960564</v>
+        <v>0.02719630894506305</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4056,13 +4056,13 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.04306859223269566</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C264">
-        <v>93.7731000546748</v>
+        <v>0.05060493441858238</v>
       </c>
       <c r="D264">
-        <v>-0.1327683532911429</v>
+        <v>0.0319552453248663</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4070,13 +4070,13 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.05060493441858238</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C265">
-        <v>94.13920174959006</v>
+        <v>-0.03645540447084272</v>
       </c>
       <c r="D265">
-        <v>-0.1484734404649427</v>
+        <v>-0.02302031228115246</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4084,13 +4084,13 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>-0.03645540447084272</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C266">
-        <v>94.50530344450532</v>
+        <v>0.003306669679608021</v>
       </c>
       <c r="D266">
-        <v>-0.1661733655691441</v>
+        <v>0.002088046196170358</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4098,13 +4098,13 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.003306669679608021</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C267">
-        <v>94.87140513942057</v>
+        <v>-0.04464297988747479</v>
       </c>
       <c r="D267">
-        <v>-0.1510446868270857</v>
+        <v>-0.02819047965831338</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4112,13 +4112,13 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>-0.04464297988747479</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C268">
-        <v>95.23750683433583</v>
+        <v>-0.01749528624517982</v>
       </c>
       <c r="D268">
-        <v>-0.1553223031996338</v>
+        <v>-0.01104766107133198</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4126,13 +4126,13 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>-0.01749528624517982</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C269">
-        <v>95.60360852925109</v>
+        <v>0.05417307821589468</v>
       </c>
       <c r="D269">
-        <v>-0.125246204081283</v>
+        <v>0.0342084032769028</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4140,13 +4140,13 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.05417307821589468</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C270">
-        <v>95.96971022416635</v>
+        <v>-0.01975700789880452</v>
       </c>
       <c r="D270">
-        <v>-0.1400650478875479</v>
+        <v>-0.01247585915376246</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4154,13 +4154,13 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>-0.01975700789880452</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C271">
-        <v>96.33581191908161</v>
+        <v>-0.03254807475522803</v>
       </c>
       <c r="D271">
-        <v>-0.1273755363032702</v>
+        <v>-0.02055297029045208</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4168,13 +4168,13 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>-0.03254807475522803</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C272">
-        <v>96.70191361399687</v>
+        <v>0.0108276386520636</v>
       </c>
       <c r="D272">
-        <v>-0.1294183313155751</v>
+        <v>0.006837274929629079</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4182,13 +4182,13 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.0108276386520636</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C273">
-        <v>97.06801530891212</v>
+        <v>-0.004316997145400236</v>
       </c>
       <c r="D273">
-        <v>-0.1309114377207984</v>
+        <v>-0.002726032637587134</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4196,13 +4196,13 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>-0.004316997145400236</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C274">
-        <v>97.43411700382738</v>
+        <v>0.01403189212951883</v>
       </c>
       <c r="D274">
-        <v>-0.1024844289492746</v>
+        <v>0.008860648877872726</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4210,13 +4210,13 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.01403189212951883</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C275">
-        <v>97.80021869874264</v>
+        <v>0.03545901480239344</v>
       </c>
       <c r="D275">
-        <v>-0.07790911690840061</v>
+        <v>0.02239112707104838</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4224,13 +4224,13 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.03545901480239344</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C276">
-        <v>98.1663203936579</v>
+        <v>0.009049353780375746</v>
       </c>
       <c r="D276">
-        <v>-0.08700659917291598</v>
+        <v>0.005714350258642506</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4238,13 +4238,13 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.009049353780375746</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C277">
-        <v>98.53242208857316</v>
+        <v>0.0296292834144829</v>
       </c>
       <c r="D277">
-        <v>-0.09406663116563682</v>
+        <v>0.0187098556926915</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4252,13 +4252,13 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.0296292834144829</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C278">
-        <v>98.89852378348841</v>
+        <v>-0.0271946468779154</v>
       </c>
       <c r="D278">
-        <v>-0.08740476561720914</v>
+        <v>-0.01717246791229494</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4266,13 +4266,13 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>-0.0271946468779154</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C279">
-        <v>99.26462547840367</v>
+        <v>-0.03373386399723444</v>
       </c>
       <c r="D279">
-        <v>-0.08267402982107337</v>
+        <v>-0.02130175470381529</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4280,13 +4280,13 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>-0.03373386399723444</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C280">
-        <v>99.6194641880811</v>
+        <v>-0.009200454886422627</v>
       </c>
       <c r="D280">
-        <v>-0.06094934491665735</v>
+        <v>-0.00578719113379586</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4294,13 +4294,13 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>-0.009200454886422627</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C281">
-        <v>99.98556588299635</v>
+        <v>-0.0006900073414541907</v>
       </c>
       <c r="D281">
-        <v>-0.04964576063777805</v>
+        <v>-0.0004357154914922847</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4308,13 +4308,13 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>-0.0006900073414541907</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C282">
-        <v>100.3516675779116</v>
+        <v>-0.02335236421276132</v>
       </c>
       <c r="D282">
-        <v>-0.0277071959672298</v>
+        <v>-0.01474620085784356</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4322,13 +4322,13 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>-0.02335236421276132</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C283">
-        <v>100.7177692728269</v>
+        <v>0.02194327118670536</v>
       </c>
       <c r="D283">
-        <v>-0.01764348793480396</v>
+        <v>0.01385640791866642</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4336,13 +4336,13 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.02194327118670536</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C284">
-        <v>101.0838709677421</v>
+        <v>0.02166149678117879</v>
       </c>
       <c r="D284">
-        <v>-0.02998685397768151</v>
+        <v>0.01367847724138521</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4350,13 +4350,13 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.02166149678117879</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C285">
-        <v>101.4499726626574</v>
+        <v>-0.01961757948351739</v>
       </c>
       <c r="D285">
-        <v>-0.05208312904867106</v>
+        <v>-0.01238781498836736</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4364,13 +4364,13 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>-0.01961757948351739</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C286">
-        <v>101.8160743575726</v>
+        <v>-0.02707251864179305</v>
       </c>
       <c r="D286">
-        <v>-0.1014254788332388</v>
+        <v>-0.01709534820467707</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4378,13 +4378,13 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>-0.02707251864179305</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C287">
-        <v>102.1821760524879</v>
+        <v>-0.0305112316180729</v>
       </c>
       <c r="D287">
-        <v>-0.08427109893217599</v>
+        <v>-0.01926677512225595</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4392,13 +4392,13 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>-0.0305112316180729</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C288">
-        <v>102.5482777474032</v>
+        <v>0.02607890250703893</v>
       </c>
       <c r="D288">
-        <v>-0.07637291560259836</v>
+        <v>0.0164679143840504</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4406,13 +4406,13 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.02607890250703893</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C289">
-        <v>102.9143794423184</v>
+        <v>-0.007373779445264184</v>
       </c>
       <c r="D289">
-        <v>-0.06813865582313865</v>
+        <v>-0.004656283697471777</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4420,13 +4420,13 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>-0.007373779445264184</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C290">
-        <v>103.2804811372337</v>
+        <v>0.05184535081169894</v>
       </c>
       <c r="D290">
-        <v>-0.07612692296930128</v>
+        <v>0.03273852487265029</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4434,13 +4434,13 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.05184535081169894</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C291">
-        <v>103.6465828321489</v>
+        <v>-0.02554480728156694</v>
       </c>
       <c r="D291">
-        <v>-0.07664797243225421</v>
+        <v>-0.0161306519381469</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4448,13 +4448,13 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>-0.02554480728156694</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C292">
-        <v>104.0014215418264</v>
+        <v>0.02194306800634127</v>
       </c>
       <c r="D292">
-        <v>-0.0805563016514354</v>
+        <v>0.01380244022520872</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4462,13 +4462,13 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.02194306800634127</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C293">
-        <v>104.3562602515038</v>
+        <v>-0.003532459825605905</v>
       </c>
       <c r="D293">
-        <v>-0.0833328357898418</v>
+        <v>-0.002221957548360452</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4476,13 +4476,13 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>-0.003532459825605905</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C294">
-        <v>104.7110989611812</v>
+        <v>-0.002581922493464006</v>
       </c>
       <c r="D294">
-        <v>-0.08092087435631085</v>
+        <v>-0.001624058717398142</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4490,13 +4490,13 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>-0.002581922493464006</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C295">
-        <v>105.0659376708586</v>
+        <v>0.04915680028719649</v>
       </c>
       <c r="D295">
-        <v>-0.1015917569169198</v>
+        <v>0.03092018843629702</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4504,13 +4504,13 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.04915680028719649</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C296">
-        <v>105.4207763805361</v>
+        <v>0.04249633563974964</v>
       </c>
       <c r="D296">
-        <v>-0.08615220451937272</v>
+        <v>0.02673068015322857</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4518,13 +4518,13 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.04249633563974964</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C297">
-        <v>105.7756150902135</v>
+        <v>-0.01573162770615077</v>
       </c>
       <c r="D297">
-        <v>-0.1117646597236952</v>
+        <v>-0.009895373381545107</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4532,13 +4532,13 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>-0.01573162770615077</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C298">
-        <v>106.1304537998909</v>
+        <v>-0.012208410159392</v>
       </c>
       <c r="D298">
-        <v>-0.1060689608136683</v>
+        <v>-0.007679229332067099</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4546,13 +4546,13 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>-0.012208410159392</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C299">
-        <v>106.4852925095683</v>
+        <v>0.01151988930443704</v>
       </c>
       <c r="D299">
-        <v>-0.09710394366378916</v>
+        <v>0.007246141855804473</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4560,13 +4560,13 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.01151988930443704</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C300">
-        <v>106.8401312192457</v>
+        <v>0.008180524254633781</v>
       </c>
       <c r="D300">
-        <v>-0.1031207310454993</v>
+        <v>0.005145643125328827</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4574,13 +4574,13 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.008180524254633781</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C301">
-        <v>107.1949699289232</v>
+        <v>0.03756694929571402</v>
       </c>
       <c r="D301">
-        <v>-0.1027418954624954</v>
+        <v>0.02363003988082684</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4588,13 +4588,13 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.03756694929571402</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C302">
-        <v>107.5498086386006</v>
+        <v>0.01954648269159343</v>
       </c>
       <c r="D302">
-        <v>-0.09157986014992742</v>
+        <v>0.01229496070858594</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4602,13 +4602,13 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.01954648269159343</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C303">
-        <v>107.904647348278</v>
+        <v>0.03793679633216218</v>
       </c>
       <c r="D303">
-        <v>-0.1036970368516971</v>
+        <v>0.02386267788803582</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4616,13 +4616,13 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.03793679633216218</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C304">
-        <v>108.2594860579554</v>
+        <v>0.01740245306407928</v>
       </c>
       <c r="D304">
-        <v>-0.09762923436824622</v>
+        <v>0.01094634160180067</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4630,13 +4630,13 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.01740245306407928</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C305">
-        <v>108.6143247676329</v>
+        <v>-0.02134450319125047</v>
       </c>
       <c r="D305">
-        <v>-0.110182000682484</v>
+        <v>-0.01342593612474217</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4644,13 +4644,13 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>-0.02134450319125047</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C306">
-        <v>108.9691634773103</v>
+        <v>-0.03820951368768899</v>
       </c>
       <c r="D306">
-        <v>-0.09042202787372043</v>
+        <v>-0.02403422021734674</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4658,13 +4658,13 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>-0.03820951368768899</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C307">
-        <v>109.3240021869877</v>
+        <v>-0.08532420887317205</v>
       </c>
       <c r="D307">
-        <v>-0.08857134817247238</v>
+        <v>-0.05366990123691207</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4672,13 +4672,13 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>-0.08532420887317205</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C308">
-        <v>109.6788408966651</v>
+        <v>0.02966384657720145</v>
       </c>
       <c r="D308">
-        <v>-0.08454993910656194</v>
+        <v>0.01865889806809441</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4686,13 +4686,13 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.02966384657720145</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C309">
-        <v>110.0336796063426</v>
+        <v>0.01365776553151221</v>
       </c>
       <c r="D309">
-        <v>-0.07361511436635607</v>
+        <v>0.008590890403481235</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4700,13 +4700,13 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.01365776553151221</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C310">
-        <v>110.38851831602</v>
+        <v>0.01423891858426085</v>
       </c>
       <c r="D310">
-        <v>-0.07391768541040106</v>
+        <v>0.008956442306703821</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4714,13 +4714,13 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.01423891858426085</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C311">
-        <v>110.7433570256974</v>
+        <v>-0.01381354105529553</v>
       </c>
       <c r="D311">
-        <v>-0.07882407942323363</v>
+        <v>-0.008688874985899176</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4728,13 +4728,13 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>-0.01381354105529553</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C312">
-        <v>111.0981957353748</v>
+        <v>-0.0009010137013003572</v>
       </c>
       <c r="D312">
-        <v>-0.08096463852999597</v>
+        <v>-0.0005667479019204764</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4742,13 +4742,13 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>-0.0009010137013003572</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C313">
-        <v>111.4530344450523</v>
+        <v>-0.006758395173689813</v>
       </c>
       <c r="D313">
-        <v>-0.0700395015771202</v>
+        <v>-0.00425110770181432</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4756,13 +4756,13 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>-0.006758395173689813</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C314">
-        <v>111.8078731547297</v>
+        <v>-0.00480126260308289</v>
       </c>
       <c r="D314">
-        <v>-0.070540764344543</v>
+        <v>-0.003020048976990395</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -4770,13 +4770,13 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>-0.00480126260308289</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C315">
-        <v>112.1627118644071</v>
+        <v>0.004170833007490771</v>
       </c>
       <c r="D315">
-        <v>-0.06951006724352336</v>
+        <v>0.002623501565896918</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -4784,13 +4784,13 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.004170833007490771</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C316">
-        <v>112.5175505740845</v>
+        <v>-0.03574468400663466</v>
       </c>
       <c r="D316">
-        <v>-0.07163071902960072</v>
+        <v>-0.02248381421540385</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -4798,13 +4798,13 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>-0.03574468400663466</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C317">
-        <v>112.8723892837619</v>
+        <v>0.02669851759043329</v>
       </c>
       <c r="D317">
-        <v>-0.07634396986108136</v>
+        <v>0.01679367229036276</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -4812,13 +4812,13 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.02669851759043329</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C318">
-        <v>113.2272279934394</v>
+        <v>-0.04428979339552797</v>
       </c>
       <c r="D318">
-        <v>-0.07798168011782805</v>
+        <v>-0.02785878555140779</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4826,13 +4826,13 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>-0.04428979339552797</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C319">
-        <v>113.5820667031168</v>
+        <v>0.009849166194955572</v>
       </c>
       <c r="D319">
-        <v>-0.06644317911394684</v>
+        <v>0.006195237950989125</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4840,13 +4840,13 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.009849166194955572</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C320">
-        <v>113.9369054127942</v>
+        <v>0.01550256522414539</v>
       </c>
       <c r="D320">
-        <v>-0.07715499878989118</v>
+        <v>0.009751290465938067</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -4854,13 +4854,13 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.01550256522414539</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C321">
-        <v>114.2917441224716</v>
+        <v>-0.01040440160519207</v>
       </c>
       <c r="D321">
-        <v>-0.07709703041606811</v>
+        <v>-0.006544487361258183</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -4868,13 +4868,13 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>-0.01040440160519207</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C322">
-        <v>114.6465828321491</v>
+        <v>0.0006550933742301979</v>
       </c>
       <c r="D322">
-        <v>-0.07598227028537784</v>
+        <v>0.0004120612093591289</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -4882,13 +4882,13 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.0006550933742301979</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C323">
-        <v>115.0014215418265</v>
+        <v>0.01930171215228871</v>
       </c>
       <c r="D323">
-        <v>-0.07853345826638981</v>
+        <v>0.01214099724565226</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -4896,13 +4896,13 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.01930171215228871</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C324">
-        <v>115.3562602515039</v>
+        <v>-0.02095337008409537</v>
       </c>
       <c r="D324">
-        <v>-0.07013971937714625</v>
+        <v>-0.01317990893610801</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -4910,13 +4910,13 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>-0.02095337008409537</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C325">
-        <v>115.7110989611813</v>
+        <v>0.01049261838480664</v>
       </c>
       <c r="D325">
-        <v>-0.07099944226911649</v>
+        <v>0.006599976722506055</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -4924,13 +4924,13 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.01049261838480664</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C326">
-        <v>116.0659376708588</v>
+        <v>-0.02170660415664116</v>
       </c>
       <c r="D326">
-        <v>-0.05853053127779441</v>
+        <v>-0.01365370176484551</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -4938,13 +4938,13 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>-0.02170660415664116</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C327">
-        <v>116.4207763805362</v>
+        <v>0.03416951269293733</v>
       </c>
       <c r="D327">
-        <v>-0.05482356023490641</v>
+        <v>0.02149301348072591</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -4952,13 +4952,13 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.03416951269293733</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C328">
-        <v>116.7756150902136</v>
+        <v>0.003200248510175641</v>
       </c>
       <c r="D328">
-        <v>-0.04735625504846128</v>
+        <v>0.002012992839230486</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -4966,13 +4966,13 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.003200248510175641</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C329">
-        <v>117.130453799891</v>
+        <v>0.006953936093483826</v>
       </c>
       <c r="D329">
-        <v>-0.04903802030626171</v>
+        <v>0.004374105172188983</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -4980,13 +4980,13 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.006953936093483826</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C330">
-        <v>117.4852925095685</v>
+        <v>0.01890881310270842</v>
       </c>
       <c r="D330">
-        <v>-0.05259683981029313</v>
+        <v>0.01189385925907691</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -4994,13 +4994,13 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.01890881310270842</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C331">
-        <v>117.8401312192459</v>
+        <v>-0.0005232145423512691</v>
       </c>
       <c r="D331">
-        <v>-0.05112634521527961</v>
+        <v>-0.0003291079188961346</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5008,13 +5008,13 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>-0.0005232145423512691</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C332">
-        <v>118.1949699289233</v>
+        <v>-0.008484277489677616</v>
       </c>
       <c r="D332">
-        <v>-0.06007628037310268</v>
+        <v>-0.005336707377086819</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5022,13 +5022,13 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>-0.008484277489677616</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C333">
-        <v>118.5498086386007</v>
+        <v>-0.003701516306543695</v>
       </c>
       <c r="D333">
-        <v>-0.0639729926051795</v>
+        <v>-0.002328296004411979</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5036,13 +5036,13 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>-0.003701516306543695</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C334">
-        <v>118.9046473482781</v>
+        <v>0.01889206070252314</v>
       </c>
       <c r="D334">
-        <v>-0.06441231154363707</v>
+        <v>0.01188332180815531</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5050,13 +5050,13 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.01889206070252314</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C335">
-        <v>119.2594860579556</v>
+        <v>-0.0008667979789098723</v>
       </c>
       <c r="D335">
-        <v>-0.06961019332689167</v>
+        <v>-0.0005452258220125745</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5064,13 +5064,13 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>-0.0008667979789098723</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C336">
-        <v>119.614324767633</v>
+        <v>0.001782311039428386</v>
       </c>
       <c r="D336">
-        <v>-0.07115719686641019</v>
+        <v>0.001121093986371038</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5078,13 +5078,13 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.001782311039428386</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C337">
-        <v>119.9691634773104</v>
+        <v>-0.003667091995669836</v>
       </c>
       <c r="D337">
-        <v>-0.05789936830528336</v>
+        <v>-0.002306642719967291</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5092,13 +5092,13 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>-0.003667091995669836</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C338">
-        <v>120.3240021869878</v>
+        <v>-0.008150288751402002</v>
       </c>
       <c r="D338">
-        <v>-0.05633145818121688</v>
+        <v>-0.005126624648700348</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5106,13 +5106,13 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>-0.008150288751402002</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C339">
-        <v>120.6788408966653</v>
+        <v>-0.002831975628045491</v>
       </c>
       <c r="D339">
-        <v>-0.059106191231072</v>
+        <v>-0.001781344993054291</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5120,13 +5120,13 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>-0.002831975628045491</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C340">
-        <v>121.0336796063427</v>
+        <v>0.0199527074417194</v>
       </c>
       <c r="D340">
-        <v>-0.04912085638873544</v>
+        <v>0.01255048071289864</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5134,13 +5134,13 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.0199527074417194</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C341">
-        <v>121.3885183160201</v>
+        <v>-0.01852318633856154</v>
       </c>
       <c r="D341">
-        <v>-0.04651720293472777</v>
+        <v>-0.01165129562304206</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5148,13 +5148,13 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>-0.01852318633856154</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C342">
-        <v>121.7433570256975</v>
+        <v>0.0001002405774697124</v>
       </c>
       <c r="D342">
-        <v>-0.05370912827240123</v>
+        <v>6.305246733347755e-05</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5162,13 +5162,13 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.0001002405774697124</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C343">
-        <v>122.098195735375</v>
+        <v>0.001927675245499749</v>
       </c>
       <c r="D343">
-        <v>-0.05245795405700177</v>
+        <v>0.001212529731117629</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5176,13 +5176,13 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.001927675245499749</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C344">
-        <v>122.4530344450524</v>
+        <v>-0.004411587553430074</v>
       </c>
       <c r="D344">
-        <v>-0.04384312418761086</v>
+        <v>-0.00277493892316684</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5190,13 +5190,13 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>-0.004411587553430074</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C345">
-        <v>122.8078731547298</v>
+        <v>0.01451469444279851</v>
       </c>
       <c r="D345">
-        <v>-0.05306930102674777</v>
+        <v>0.009129908469317076</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5204,13 +5204,13 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.01451469444279851</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C346">
-        <v>123.1627118644072</v>
+        <v>-0.001486657524981894</v>
       </c>
       <c r="D346">
-        <v>-0.04861022280432167</v>
+        <v>-0.0009351245513156798</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5218,13 +5218,13 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>-0.001486657524981894</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C347">
-        <v>123.5175505740847</v>
+        <v>0.021561599123058</v>
       </c>
       <c r="D347">
-        <v>-0.06380302322114779</v>
+        <v>0.01356249194369344</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5232,13 +5232,13 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.021561599123058</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C348">
-        <v>123.8723892837621</v>
+        <v>0.006410200830141655</v>
       </c>
       <c r="D348">
-        <v>-0.05854456494877145</v>
+        <v>0.00403208948557444</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5246,13 +5246,13 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.006410200830141655</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C349">
-        <v>124.2272279934395</v>
+        <v>0.01291267866710388</v>
       </c>
       <c r="D349">
-        <v>-0.06677048899006559</v>
+        <v>0.008122222261651104</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5260,13 +5260,13 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.01291267866710388</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C350">
-        <v>124.5820667031169</v>
+        <v>-0.002908156801585626</v>
       </c>
       <c r="D350">
-        <v>-0.06240267870181716</v>
+        <v>-0.00182926382071185</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5274,13 +5274,13 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>-0.002908156801585626</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C351">
-        <v>124.9369054127943</v>
+        <v>-0.006154012932697128</v>
       </c>
       <c r="D351">
-        <v>-0.0548653932404906</v>
+        <v>-0.003870944374057759</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5288,13 +5288,13 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>-0.006154012932697128</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C352">
-        <v>125.2917441224718</v>
+        <v>0.002542821501602788</v>
       </c>
       <c r="D352">
-        <v>-0.06281252957876587</v>
+        <v>0.001599463747234677</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5302,13 +5302,13 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.002542821501602788</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C353">
-        <v>125.6465828321492</v>
+        <v>-0.01547648501017029</v>
       </c>
       <c r="D353">
-        <v>-0.05645729400262878</v>
+        <v>-0.009734885713678813</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5316,13 +5316,13 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>-0.01547648501017029</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C354">
-        <v>126.0014215418266</v>
+        <v>-0.006738306745828204</v>
       </c>
       <c r="D354">
-        <v>-0.06227554264094542</v>
+        <v>-0.004238471851408254</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5330,13 +5330,13 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>-0.006738306745828204</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C355">
-        <v>126.356260251504</v>
+        <v>-0.0007596829301919072</v>
       </c>
       <c r="D355">
-        <v>-0.06367557895918786</v>
+        <v>-0.0004778492338015377</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5344,13 +5344,13 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>-0.0007596829301919072</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C356">
-        <v>126.7110989611815</v>
+        <v>-0.008988326516853107</v>
       </c>
       <c r="D356">
-        <v>-0.0782865450643825</v>
+        <v>-0.005653759968190022</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5358,13 +5358,13 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>-0.008988326516853107</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C357">
-        <v>127.0659376708589</v>
+        <v>-0.002675122966573795</v>
       </c>
       <c r="D357">
-        <v>-0.08318636958923213</v>
+        <v>-0.00168268287873635</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5372,13 +5372,13 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>-0.002675122966573795</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C358">
-        <v>127.4207763805363</v>
+        <v>0.02292581805068572</v>
       </c>
       <c r="D358">
-        <v>-0.09600987037573287</v>
+        <v>0.01442060121980918</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5386,13 +5386,13 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.02292581805068572</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C359">
-        <v>127.7756150902137</v>
+        <v>0.002711275233228783</v>
       </c>
       <c r="D359">
-        <v>-0.09488797405371131</v>
+        <v>0.00170542306708955</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5400,13 +5400,13 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.002711275233228783</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C360">
-        <v>128.1304537998911</v>
+        <v>-0.004798148109014022</v>
       </c>
       <c r="D360">
-        <v>-0.08874875665022348</v>
+        <v>-0.003018089924673513</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5414,13 +5414,13 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>-0.004798148109014022</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C361">
-        <v>128.4852925095686</v>
+        <v>0.01726692789208339</v>
       </c>
       <c r="D361">
-        <v>-0.07577981729619215</v>
+        <v>0.01086109472178627</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5428,13 +5428,13 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.01726692789208339</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C362">
-        <v>128.840131219246</v>
+        <v>0.00450231235668852</v>
       </c>
       <c r="D362">
-        <v>-0.08246922094074269</v>
+        <v>0.002832005859912269</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5442,13 +5442,13 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.00450231235668852</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C363">
-        <v>129.1949699289234</v>
+        <v>-0.0124364839208333</v>
       </c>
       <c r="D363">
-        <v>-0.07533178060024132</v>
+        <v>-0.007822690331154476</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5456,13 +5456,13 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>-0.0124364839208333</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C364">
-        <v>129.5498086386008</v>
+        <v>0.002163566400010808</v>
       </c>
       <c r="D364">
-        <v>-0.07403299222435636</v>
+        <v>0.001360907959670421</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5470,13 +5470,13 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.002163566400010808</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C365">
-        <v>129.9046473482782</v>
+        <v>0.01489701131770271</v>
       </c>
       <c r="D365">
-        <v>-0.06998224205959472</v>
+        <v>0.009370390147240547</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5484,13 +5484,13 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.01489701131770271</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C366">
-        <v>130.2594860579556</v>
+        <v>-0.01595417006203359</v>
       </c>
       <c r="D366">
-        <v>-0.06087888760248986</v>
+        <v>-0.010035355063403</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -5498,13 +5498,13 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>-0.01595417006203359</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C367">
-        <v>130.614324767633</v>
+        <v>0.007710766173342876</v>
       </c>
       <c r="D367">
-        <v>-0.06689861721330878</v>
+        <v>0.004850159930569885</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -5512,13 +5512,13 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.007710766173342876</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C368">
-        <v>130.9691634773104</v>
+        <v>-0.02627182697608621</v>
       </c>
       <c r="D368">
-        <v>-0.05691892642215372</v>
+        <v>-0.01652527902386597</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -5526,13 +5526,13 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>-0.02627182697608621</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C369">
-        <v>131.3240021869878</v>
+        <v>0.009093077122229509</v>
       </c>
       <c r="D369">
-        <v>-0.04912085638873543</v>
+        <v>0.005719649294552425</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -5540,13 +5540,13 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.009093077122229509</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C370">
-        <v>131.6788408966652</v>
+        <v>-0.01422450418633581</v>
       </c>
       <c r="D370">
-        <v>-0.04873438948071333</v>
+        <v>-0.008947375485888915</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -5554,13 +5554,13 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>-0.01422450418633581</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C371">
-        <v>132.0336796063426</v>
+        <v>0.00755294303939813</v>
       </c>
       <c r="D371">
-        <v>-0.04219001954749656</v>
+        <v>0.00475088737798982</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -5568,13 +5568,13 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.00755294303939813</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C372">
-        <v>132.3885183160201</v>
+        <v>0.01303369056899051</v>
       </c>
       <c r="D372">
-        <v>-0.05306930102674776</v>
+        <v>0.008198340129118237</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -5582,13 +5582,13 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.01303369056899051</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C373">
-        <v>132.7433570256975</v>
+        <v>-0.01374241648059193</v>
       </c>
       <c r="D373">
-        <v>-0.05927478553175562</v>
+        <v>-0.008644136816623755</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -5596,13 +5596,13 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>-0.01374241648059193</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C374">
-        <v>133.0981957353749</v>
+        <v>0.01098965594674883</v>
       </c>
       <c r="D374">
-        <v>-0.05462837954465355</v>
+        <v>0.006912619021951514</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -5610,13 +5610,13 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.01098965594674883</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C375">
-        <v>133.4530344450523</v>
+        <v>-0.01006108270601747</v>
       </c>
       <c r="D375">
-        <v>-0.05415464337488902</v>
+        <v>-0.006328535855175599</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -5624,13 +5624,13 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>-0.01006108270601747</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C376">
-        <v>133.8078731547297</v>
+        <v>-0.002420983025115397</v>
       </c>
       <c r="D376">
-        <v>-0.06333586484043388</v>
+        <v>-0.001522825954909478</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -5638,13 +5638,13 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>-0.002420983025115397</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C377">
-        <v>134.1627118644071</v>
+        <v>-0.02526570236807757</v>
       </c>
       <c r="D377">
-        <v>-0.05862877412717143</v>
+        <v>-0.01589241516193301</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -5652,13 +5652,13 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>-0.02526570236807757</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C378">
-        <v>134.5175505740845</v>
+        <v>-0.00847291734231348</v>
       </c>
       <c r="D378">
-        <v>-0.06106209447770367</v>
+        <v>-0.005329561714734692</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -5666,13 +5666,13 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>-0.00847291734231348</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C379">
-        <v>134.8723892837619</v>
+        <v>-0.02217476598438939</v>
       </c>
       <c r="D379">
-        <v>-0.05029564407872229</v>
+        <v>-0.01394818089790712</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -5680,13 +5680,13 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>-0.02217476598438939</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C380">
-        <v>135.2272279934393</v>
+        <v>0.001940015352575486</v>
       </c>
       <c r="D380">
-        <v>-0.04825166875753829</v>
+        <v>0.001220291799313212</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -5694,13 +5694,13 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.001940015352575486</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C381">
-        <v>135.5820667031167</v>
+        <v>0.01061611111631411</v>
       </c>
       <c r="D381">
-        <v>-0.06131586139325447</v>
+        <v>0.006677655060119875</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -5708,13 +5708,13 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.01061611111631411</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C382">
-        <v>135.9369054127941</v>
+        <v>0.02242626253387225</v>
       </c>
       <c r="D382">
-        <v>-0.07246391086721689</v>
+        <v>0.01410637509801079</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -5722,13 +5722,13 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.02242626253387225</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C383">
-        <v>136.2917441224716</v>
+        <v>-0.01156750897143333</v>
       </c>
       <c r="D383">
-        <v>-0.08691815495820282</v>
+        <v>-0.007276095169856577</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -5736,13 +5736,13 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>-0.01156750897143333</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C384">
-        <v>136.646582832149</v>
+        <v>0.01234226689834728</v>
       </c>
       <c r="D384">
-        <v>-0.08299601897013505</v>
+        <v>0.007763426748656138</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -5750,13 +5750,13 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.01234226689834728</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C385">
-        <v>137.0014215418264</v>
+        <v>0.002245902174296432</v>
       </c>
       <c r="D385">
-        <v>-0.0814170623666218</v>
+        <v>0.001412698101442994</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -5764,13 +5764,13 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.002245902174296432</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C386">
-        <v>137.3562602515038</v>
+        <v>0.007004673564598995</v>
       </c>
       <c r="D386">
-        <v>-0.0702972395897047</v>
+        <v>0.004406019620617208</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -5778,13 +5778,13 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.007004673564598995</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C387">
-        <v>137.7110989611812</v>
+        <v>0.01574178207028698</v>
       </c>
       <c r="D387">
-        <v>-0.05773117445642112</v>
+        <v>0.009901760592484548</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -5792,13 +5792,13 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.01574178207028698</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C388">
-        <v>138.0659376708586</v>
+        <v>-0.01040948939229835</v>
       </c>
       <c r="D388">
-        <v>-0.06510740029919533</v>
+        <v>-0.00654768763741796</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -5806,13 +5806,13 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>-0.01040948939229835</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C389">
-        <v>138.420776380536</v>
+        <v>0.01725716803662447</v>
       </c>
       <c r="D389">
-        <v>-0.05105707452574192</v>
+        <v>0.0108549556613076</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -5820,13 +5820,13 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.01725716803662447</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C390">
-        <v>138.7756150902134</v>
+        <v>0.01348464674349792</v>
       </c>
       <c r="D390">
-        <v>-0.05574458612426426</v>
+        <v>0.008481996709913073</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -5834,13 +5834,13 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.01348464674349792</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C391">
-        <v>139.1304537998908</v>
+        <v>0.0006682896807026495</v>
       </c>
       <c r="D391">
-        <v>-0.01034132424615999</v>
+        <v>0.0004203618367475557</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -5848,13 +5848,13 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.0006682896807026495</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C392">
-        <v>139.4852925095682</v>
+        <v>0.0113167125109177</v>
       </c>
       <c r="D392">
-        <v>-0.00616024285478967</v>
+        <v>0.007118341333703837</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -5862,13 +5862,13 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.0113167125109177</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C393">
-        <v>139.8401312192456</v>
+        <v>-0.0188127661000852</v>
       </c>
       <c r="D393">
-        <v>-0.009051614983092104</v>
+        <v>-0.01183344459818563</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -5876,13 +5876,13 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>-0.0188127661000852</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C394">
-        <v>140.1949699289231</v>
+        <v>-0.01073070209214322</v>
       </c>
       <c r="D394">
-        <v>-0.01884769175381915</v>
+        <v>-0.006749734091811002</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -5890,13 +5890,13 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>-0.01073070209214322</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C395">
-        <v>140.5498086386005</v>
+        <v>0.008034698726023137</v>
       </c>
       <c r="D395">
-        <v>-0.009747700725952954</v>
+        <v>0.005053917203439682</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -5904,13 +5904,13 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.008034698726023137</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C396">
-        <v>140.9046473482779</v>
+        <v>0.0008191981953888927</v>
       </c>
       <c r="D396">
-        <v>0.003273692480066325</v>
+        <v>0.0005152850148933817</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -5918,13 +5918,13 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.0008191981953888927</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C397">
-        <v>141.2594860579553</v>
+        <v>-0.01587643193843213</v>
       </c>
       <c r="D397">
-        <v>0.002087036718729034</v>
+        <v>-0.009986456896386473</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -5932,13 +5932,13 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>-0.01587643193843213</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C398">
-        <v>141.6143247676327</v>
+        <v>0.008139636497996428</v>
       </c>
       <c r="D398">
-        <v>-0.003206731161521847</v>
+        <v>0.00511992425972777</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -5946,13 +5946,13 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.008139636497996428</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C399">
-        <v>141.9691634773101</v>
+        <v>-0.004207767460419731</v>
       </c>
       <c r="D399">
-        <v>-0.00151304218297792</v>
+        <v>-0.002646733758344001</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -5960,13 +5960,13 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>-0.004207767460419731</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C400">
-        <v>142.3240021869875</v>
+        <v>0.01861765535439996</v>
       </c>
       <c r="D400">
-        <v>-0.00663472087545698</v>
+        <v>0.01171071771223522</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -5974,13 +5974,13 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.01861765535439996</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C401">
-        <v>142.6788408966649</v>
+        <v>0.003534500849630362</v>
       </c>
       <c r="D401">
-        <v>0.004155793166977836</v>
+        <v>0.002223241375767251</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -5988,13 +5988,13 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.003534500849630362</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C402">
-        <v>143.0336796063423</v>
+        <v>-0.02259097724522707</v>
       </c>
       <c r="D402">
-        <v>0.0242030300477119</v>
+        <v>-0.01420998253143944</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -6002,13 +6002,13 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>-0.02259097724522707</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C403">
-        <v>143.3885183160197</v>
+        <v>-0.0192775274383532</v>
       </c>
       <c r="D403">
-        <v>0.02181419404738356</v>
+        <v>-0.01212578478455238</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -6016,13 +6016,13 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>-0.0192775274383532</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C404">
-        <v>143.7433570256972</v>
+        <v>-0.02499469415842093</v>
       </c>
       <c r="D404">
-        <v>0.01939092084872071</v>
+        <v>-0.01572194790488191</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -6030,13 +6030,13 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>-0.02499469415842093</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C405">
-        <v>144.0981957353746</v>
+        <v>0.006782270235122567</v>
       </c>
       <c r="D405">
-        <v>0.008158701739936247</v>
+        <v>0.004266125387955727</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6044,13 +6044,13 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.006782270235122567</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C406">
-        <v>144.453034445052</v>
+        <v>0.002730377122857952</v>
       </c>
       <c r="D406">
-        <v>0.01716678708884374</v>
+        <v>0.001717438373687468</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -6058,13 +6058,13 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.002730377122857952</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C407">
-        <v>144.8078731547294</v>
+        <v>0.019228717022858</v>
       </c>
       <c r="D407">
-        <v>0.02322918651900087</v>
+        <v>0.01209508247610374</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -6072,13 +6072,13 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.019228717022858</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C408">
-        <v>145.1627118644068</v>
+        <v>0.02172960085661568</v>
       </c>
       <c r="D408">
-        <v>0.0232657352626866</v>
+        <v>0.01366816695160443</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -6086,13 +6086,13 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.02172960085661568</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C409">
-        <v>145.5175505740842</v>
+        <v>-0.01275518164928169</v>
       </c>
       <c r="D409">
-        <v>0.0297589802262954</v>
+        <v>-0.00802315483983428</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -6100,13 +6100,13 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>-0.01275518164928169</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C410">
-        <v>145.8723892837616</v>
+        <v>0.0242962269990068</v>
       </c>
       <c r="D410">
-        <v>0.02567285937310324</v>
+        <v>0.01528260408959141</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -6114,13 +6114,13 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.0242962269990068</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C411">
-        <v>146.227227993439</v>
+        <v>-0.008105779730271934</v>
       </c>
       <c r="D411">
-        <v>0.02533306564814256</v>
+        <v>-0.005098627966401739</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -6128,13 +6128,13 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>-0.008105779730271934</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C412">
-        <v>146.5820667031164</v>
+        <v>0.07851262489372424</v>
       </c>
       <c r="D412">
-        <v>0.02414221284900889</v>
+        <v>0.04938533716920065</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -6142,13 +6142,13 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.07851262489372424</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C413">
-        <v>146.9369054127938</v>
+        <v>0.007230046066119655</v>
       </c>
       <c r="D413">
-        <v>0.02507808926574544</v>
+        <v>0.004547781496383427</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -6156,13 +6156,13 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.007230046066119655</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C414">
-        <v>147.2917441224712</v>
+        <v>-0.00499984375455309</v>
       </c>
       <c r="D414">
-        <v>0.0194645027591298</v>
+        <v>-0.003144958787789344</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -6170,13 +6170,13 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>-0.00499984375455309</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C415">
-        <v>147.6465828321487</v>
+        <v>-0.01693965739719516</v>
       </c>
       <c r="D415">
-        <v>0.01234518241402455</v>
+        <v>-0.01065523784516975</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -6184,13 +6184,13 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>-0.01693965739719516</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C416">
-        <v>148.0014215418261</v>
+        <v>0.01573596593181481</v>
       </c>
       <c r="D416">
-        <v>0.02196073323984961</v>
+        <v>0.009898102175002522</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -6198,13 +6198,13 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.01573596593181481</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C417">
-        <v>148.3562602515035</v>
+        <v>0.02251696724175023</v>
       </c>
       <c r="D417">
-        <v>0.02265628775583821</v>
+        <v>0.01416342939453254</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -6212,13 +6212,13 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.02251696724175023</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C418">
-        <v>148.7110989611809</v>
+        <v>-0.002051999235605173</v>
       </c>
       <c r="D418">
-        <v>0.02467718481614097</v>
+        <v>-0.001290730939877209</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -6226,13 +6226,13 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>-0.002051999235605173</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C419">
-        <v>149.0659376708583</v>
+        <v>-0.009154135510625494</v>
       </c>
       <c r="D419">
-        <v>0.02013856769271532</v>
+        <v>-0.005758055717749018</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -6240,13 +6240,13 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>-0.009154135510625494</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C420">
-        <v>149.4207763805357</v>
+        <v>0.002928775642068615</v>
       </c>
       <c r="D420">
-        <v>0.02725996175885003</v>
+        <v>0.001842233306710678</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -6254,13 +6254,13 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.002928775642068615</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C421">
-        <v>149.7756150902131</v>
+        <v>-0.008856553942938383</v>
       </c>
       <c r="D421">
-        <v>0.02165540134077526</v>
+        <v>-0.005570873515199299</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -6268,13 +6268,13 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>-0.008856553942938383</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C422">
-        <v>150.1304537998905</v>
+        <v>0.01865926689801789</v>
       </c>
       <c r="D422">
-        <v>0.03084215067220461</v>
+        <v>0.01173689184810806</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -6282,13 +6282,13 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.01865926689801789</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C423">
-        <v>150.4852925095679</v>
+        <v>0.03466625797940193</v>
       </c>
       <c r="D423">
-        <v>0.03127485141535458</v>
+        <v>0.02180547193556004</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -6296,13 +6296,13 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.03466625797940193</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C424">
-        <v>150.8401312192453</v>
+        <v>-0.004130843843993759</v>
       </c>
       <c r="D424">
-        <v>0.03422300622774579</v>
+        <v>-0.002598347925637311</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -6310,13 +6310,13 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>-0.004130843843993759</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C425">
-        <v>151.1949699289227</v>
+        <v>-0.004190393636748446</v>
       </c>
       <c r="D425">
-        <v>0.0322352510411705</v>
+        <v>-0.002635805424957033</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -6324,13 +6324,13 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>-0.004190393636748446</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C426">
-        <v>151.5498086386002</v>
+        <v>-0.01942307598911519</v>
       </c>
       <c r="D426">
-        <v>0.03452177585216738</v>
+        <v>-0.01221733648421341</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -6338,13 +6338,13 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>-0.01942307598911519</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C427">
-        <v>151.9046473482776</v>
+        <v>0.01557703999127202</v>
       </c>
       <c r="D427">
-        <v>0.04212998227045987</v>
+        <v>0.009798135944485305</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -6352,13 +6352,13 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.01557703999127202</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C428">
-        <v>152.259486057955</v>
+        <v>0.01048327526981918</v>
       </c>
       <c r="D428">
-        <v>0.03425886673377426</v>
+        <v>0.006594099796540444</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -6366,13 +6366,13 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.01048327526981918</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C429">
-        <v>152.6143247676324</v>
+        <v>6.320113764157753e-05</v>
       </c>
       <c r="D429">
-        <v>0.03640643778904554</v>
+        <v>3.975423692853572e-05</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -6380,13 +6380,13 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>6.320113764157753e-05</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C430">
-        <v>152.9691634773098</v>
+        <v>0.01122830574463052</v>
       </c>
       <c r="D430">
-        <v>0.061094753379237</v>
+        <v>0.007062732468670459</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -6394,13 +6394,13 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.01122830574463052</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C431">
-        <v>153.3240021869872</v>
+        <v>-0.007065837575247258</v>
       </c>
       <c r="D431">
-        <v>0.06953415272607791</v>
+        <v>-0.004444492481416012</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -6408,13 +6408,13 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>-0.007065837575247258</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C432">
-        <v>153.6788408966646</v>
+        <v>-0.0005875810716133856</v>
       </c>
       <c r="D432">
-        <v>0.06841974598139795</v>
+        <v>-0.0003695952004552935</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -6422,13 +6422,13 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>-0.0005875810716133856</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C433">
-        <v>154.033679606342</v>
+        <v>-0.002059256873945259</v>
       </c>
       <c r="D433">
-        <v>0.07088207594405743</v>
+        <v>-0.001295296077228844</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -6436,13 +6436,13 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>-0.002059256873945259</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C434">
-        <v>154.3885183160194</v>
+        <v>0.001618344387929405</v>
       </c>
       <c r="D434">
-        <v>0.07699796922159213</v>
+        <v>0.001017957091129757</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -6450,13 +6450,13 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>0.001618344387929405</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C435">
-        <v>154.7433570256968</v>
+        <v>-0.009707175067854124</v>
       </c>
       <c r="D435">
-        <v>0.07614251500956382</v>
+        <v>-0.006105923911413557</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -6464,13 +6464,13 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>-0.009707175067854124</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C436">
-        <v>155.0981957353742</v>
+        <v>-0.01231093328171351</v>
       </c>
       <c r="D436">
-        <v>0.07905918565336799</v>
+        <v>-0.00774371754616439</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -6478,13 +6478,13 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>-0.01231093328171351</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C437">
-        <v>155.4530344450517</v>
+        <v>0.01662748674668713</v>
       </c>
       <c r="D437">
-        <v>0.06857746928710073</v>
+        <v>0.01045887894301183</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -6492,13 +6492,13 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.01662748674668713</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C438">
-        <v>155.8078731547291</v>
+        <v>0.001202772852610501</v>
       </c>
       <c r="D438">
-        <v>0.0710727779126567</v>
+        <v>0.000756557852250318</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -6506,13 +6506,13 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.001202772852610501</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C439">
-        <v>156.1627118644065</v>
+        <v>0.003494593257866718</v>
       </c>
       <c r="D439">
-        <v>0.06836340580260085</v>
+        <v>0.002198139045058959</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -6520,13 +6520,13 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.003494593257866718</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C440">
-        <v>156.5175505740839</v>
+        <v>-0.007848307126136156</v>
       </c>
       <c r="D440">
-        <v>0.06223474053434985</v>
+        <v>-0.004936674759713142</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -6534,13 +6534,13 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>-0.007848307126136156</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C441">
-        <v>156.8723892837613</v>
+        <v>0.01231451921969651</v>
       </c>
       <c r="D441">
-        <v>0.05803993127815624</v>
+        <v>0.007745973142084128</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -6548,13 +6548,13 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>0.01231451921969651</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C442">
-        <v>157.2272279934387</v>
+        <v>-0.009691566896226078</v>
       </c>
       <c r="D442">
-        <v>0.05360643163646836</v>
+        <v>-0.006096106193314217</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -6562,13 +6562,13 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>-0.009691566896226078</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C443">
-        <v>157.5820667031161</v>
+        <v>0.01588599088293741</v>
       </c>
       <c r="D443">
-        <v>0.04895225771133515</v>
+        <v>0.00999246958158218</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -6576,13 +6576,13 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.01588599088293741</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C444">
-        <v>157.9369054127935</v>
+        <v>0.0007482385567225691</v>
       </c>
       <c r="D444">
-        <v>0.03170722863718076</v>
+        <v>0.0004706505922679173</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -6590,13 +6590,13 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.0007482385567225691</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C445">
-        <v>158.2917441224709</v>
+        <v>0.005098034003268914</v>
       </c>
       <c r="D445">
-        <v>0.04268391926263605</v>
+        <v>0.00320672157493501</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -6604,13 +6604,13 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>0.005098034003268914</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C446">
-        <v>158.6465828321483</v>
+        <v>-0.003437283377637712</v>
       </c>
       <c r="D446">
-        <v>0.03087822143600035</v>
+        <v>-0.002162090476283337</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -6618,13 +6618,13 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>-0.003437283377637712</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C447">
-        <v>159.0014215418257</v>
+        <v>0.003953924395959874</v>
       </c>
       <c r="D447">
-        <v>0.0372989105678196</v>
+        <v>0.002487063573537643</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -6632,13 +6632,13 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.003953924395959874</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C448">
-        <v>159.3562602515032</v>
+        <v>0.0131563291253638</v>
       </c>
       <c r="D448">
-        <v>0.05133625308075795</v>
+        <v>0.008275481180823451</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -6646,13 +6646,13 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.0131563291253638</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C449">
-        <v>159.7110989611806</v>
+        <v>-0.01361095912637467</v>
       </c>
       <c r="D449">
-        <v>0.0542880602539009</v>
+        <v>-0.00856144864042052</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -6660,13 +6660,13 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>-0.01361095912637467</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C450">
-        <v>160.065937670858</v>
+        <v>0.003713641569361492</v>
       </c>
       <c r="D450">
-        <v>0.0673031875563274</v>
+        <v>0.002335922933117173</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -6674,13 +6674,13 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.003713641569361492</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C451">
-        <v>160.4207763805354</v>
+        <v>0.04269174462386705</v>
       </c>
       <c r="D451">
-        <v>0.06779970191660575</v>
+        <v>0.02685359463455679</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -6688,13 +6688,13 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>0.04269174462386705</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C452">
-        <v>160.7756150902128</v>
+        <v>0.01459365181791927</v>
       </c>
       <c r="D452">
-        <v>0.07481795530440008</v>
+        <v>0.009179573559455279</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -6702,13 +6702,13 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>0.01459365181791927</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C453">
-        <v>161.1304537998902</v>
+        <v>-0.001927064160257785</v>
       </c>
       <c r="D453">
-        <v>0.07541939202949928</v>
+        <v>-0.001212145351525757</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -6716,13 +6716,13 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>-0.001927064160257785</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C454">
-        <v>161.4852925095676</v>
+        <v>0.004257931715168084</v>
       </c>
       <c r="D454">
-        <v>0.07506306059318127</v>
+        <v>0.00267828764713504</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -6730,13 +6730,13 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>0.004257931715168084</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C455">
-        <v>161.840131219245</v>
+        <v>0.01057577836760437</v>
       </c>
       <c r="D455">
-        <v>0.07378067907424329</v>
+        <v>0.006652285300839922</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -6744,13 +6744,13 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>0.01057577836760437</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C456">
-        <v>162.1949699289224</v>
+        <v>-0.001479276000985408</v>
       </c>
       <c r="D456">
-        <v>0.07922509309268794</v>
+        <v>-0.0009304814884721888</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -6758,13 +6758,13 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>-0.001479276000985408</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C457">
-        <v>162.5498086385998</v>
+        <v>0.005043590674395304</v>
       </c>
       <c r="D457">
-        <v>0.08938689496182604</v>
+        <v>0.00317247609967958</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -6772,13 +6772,13 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>0.005043590674395304</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C458">
-        <v>162.9046473482773</v>
+        <v>-0.01812528508450661</v>
       </c>
       <c r="D458">
-        <v>0.09143698352019908</v>
+        <v>-0.01140101119275905</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -6786,13 +6786,13 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>-0.01812528508450661</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C459">
-        <v>163.2594860579547</v>
+        <v>0.004314959366539028</v>
       </c>
       <c r="D459">
-        <v>0.08856046753032376</v>
+        <v>0.002714158690737695</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -6800,13 +6800,13 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>0.004314959366539028</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C460">
-        <v>163.6143247676321</v>
+        <v>-0.00468512409406685</v>
       </c>
       <c r="D460">
-        <v>0.09522511591518532</v>
+        <v>-0.002946996529261777</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -6814,13 +6814,13 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>-0.00468512409406685</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C461">
-        <v>163.9691634773095</v>
+        <v>-0.01059786406089547</v>
       </c>
       <c r="D461">
-        <v>0.1008452106989644</v>
+        <v>-0.006666177453997109</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -6828,13 +6828,13 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>-0.01059786406089547</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C462">
-        <v>164.3240021869869</v>
+        <v>-0.007253784684379205</v>
       </c>
       <c r="D462">
-        <v>0.1037144162049446</v>
+        <v>-0.004562713358211582</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -6842,13 +6842,13 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>-0.007253784684379205</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C463">
-        <v>164.6788408966643</v>
+        <v>-0.007666534956647375</v>
       </c>
       <c r="D463">
-        <v>0.1152276474209628</v>
+        <v>-0.004822337990431365</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -6856,13 +6856,13 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>-0.007666534956647375</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C464">
-        <v>165.0336796063417</v>
+        <v>-0.008048131267642589</v>
       </c>
       <c r="D464">
-        <v>0.1046464970638239</v>
+        <v>-0.005062366425431863</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -6870,13 +6870,13 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>-0.008048131267642589</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C465">
-        <v>165.3885183160191</v>
+        <v>-0.02982059973169893</v>
       </c>
       <c r="D465">
-        <v>0.09312366215478964</v>
+        <v>-0.01875749759138983</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -6884,13 +6884,13 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>-0.02982059973169893</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C466">
-        <v>165.7433570256965</v>
+        <v>0.01898120879430554</v>
       </c>
       <c r="D466">
-        <v>0.110909520913733</v>
+        <v>0.01193939697538637</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -6898,13 +6898,13 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>0.01898120879430554</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C467">
-        <v>166.0981957353739</v>
+        <v>-0.02041475186429942</v>
       </c>
       <c r="D467">
-        <v>0.1091795019101847</v>
+        <v>-0.01284111192828788</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -6912,13 +6912,13 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>-0.02041475186429942</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C468">
-        <v>166.4530344450513</v>
+        <v>0.01110284011574159</v>
       </c>
       <c r="D468">
-        <v>0.1135209397546414</v>
+        <v>0.006983813156085853</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -6926,13 +6926,13 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>0.01110284011574159</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C469">
-        <v>166.8078731547288</v>
+        <v>0.02427377597190983</v>
       </c>
       <c r="D469">
-        <v>0.1064956145080086</v>
+        <v>0.01526848213730056</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -6940,13 +6940,13 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>0.02427377597190983</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C470">
-        <v>167.1627118644062</v>
+        <v>0.005104349770414629</v>
       </c>
       <c r="D470">
-        <v>0.1174264414201855</v>
+        <v>0.003210694264555253</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -6954,13 +6954,13 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>0.005104349770414629</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C471">
-        <v>167.5175505740836</v>
+        <v>0.02250613206123564</v>
       </c>
       <c r="D471">
-        <v>0.1248657920591672</v>
+        <v>0.01415661394232053</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -6968,13 +6968,13 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>0.02250613206123564</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C472">
-        <v>167.872389283761</v>
+        <v>0.0008585868968520316</v>
       </c>
       <c r="D472">
-        <v>0.1198823723780453</v>
+        <v>0.0005400609576802542</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -6982,13 +6982,13 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>0.0008585868968520316</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C473">
-        <v>168.2272279934384</v>
+        <v>0.01213616539543683</v>
       </c>
       <c r="D473">
-        <v>0.1308589002638319</v>
+        <v>0.007633786550967051</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -6996,13 +6996,13 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>0.01213616539543683</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C474">
-        <v>168.5820667031158</v>
+        <v>0.001040021664562296</v>
       </c>
       <c r="D474">
-        <v>0.1292383229797227</v>
+        <v>0.0006541854973923793</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -7010,13 +7010,13 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>0.001040021664562296</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C475">
-        <v>168.9369054127932</v>
+        <v>-0.0006161785572276202</v>
       </c>
       <c r="D475">
-        <v>0.1354929212023193</v>
+        <v>-0.0003875833453066731</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -7024,13 +7024,13 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>-0.0006161785572276202</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C476">
-        <v>169.2917441224706</v>
+        <v>-0.002217530965888059</v>
       </c>
       <c r="D476">
-        <v>0.1322126480356673</v>
+        <v>-0.001394852287536737</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -7038,13 +7038,13 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>-0.002217530965888059</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C477">
-        <v>169.646582832148</v>
+        <v>0.009414637140914728</v>
       </c>
       <c r="D477">
-        <v>0.1256569860552617</v>
+        <v>0.005921914216460206</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -7052,13 +7052,13 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>0.009414637140914728</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C478">
-        <v>170.0014215418254</v>
+        <v>0.0175720797447978</v>
       </c>
       <c r="D478">
-        <v>0.1294005852249411</v>
+        <v>0.0110530387200223</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -7066,13 +7066,13 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>0.0175720797447978</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C479">
-        <v>170.3562602515028</v>
+        <v>0.003545072035013419</v>
       </c>
       <c r="D479">
-        <v>0.132646388863447</v>
+        <v>0.002229890772028388</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -7080,13 +7080,13 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>0.003545072035013419</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C480">
-        <v>170.7110989611803</v>
+        <v>-0.004974154093162042</v>
       </c>
       <c r="D480">
-        <v>0.1256773973392105</v>
+        <v>-0.003128799697563067</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -7094,13 +7094,13 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>-0.004974154093162042</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C481">
-        <v>171.0659376708577</v>
+        <v>0.0115247014651505</v>
       </c>
       <c r="D481">
-        <v>0.1181169706740725</v>
+        <v>0.007249168759817279</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -7108,13 +7108,13 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>0.0115247014651505</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C482">
-        <v>171.4207763805351</v>
+        <v>0.009718429367710613</v>
       </c>
       <c r="D482">
-        <v>0.1099112961753545</v>
+        <v>0.006113002994475272</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -7122,13 +7122,13 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>0.009718429367710613</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C483">
-        <v>171.7756150902125</v>
+        <v>0.004961512594377382</v>
       </c>
       <c r="D483">
-        <v>0.1124228398929883</v>
+        <v>0.00312084805054261</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -7136,13 +7136,13 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>0.004961512594377382</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C484">
-        <v>172.1304537998899</v>
+        <v>0.01990901019853553</v>
       </c>
       <c r="D484">
-        <v>0.1214573869606466</v>
+        <v>0.01252299464819349</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -7150,13 +7150,13 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>0.01990901019853553</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C485">
-        <v>172.4852925095673</v>
+        <v>-0.01829722919830079</v>
       </c>
       <c r="D485">
-        <v>0.1312127969813867</v>
+        <v>-0.0115091660028355</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -7164,13 +7164,13 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>-0.01829722919830079</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C486">
-        <v>172.8401312192447</v>
+        <v>-0.01992561718041674</v>
       </c>
       <c r="D486">
-        <v>0.1258304590093725</v>
+        <v>-0.01253344062934208</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -7178,13 +7178,13 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>-0.01992561718041674</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C487">
-        <v>173.1949699289221</v>
+        <v>0.030755817960892</v>
       </c>
       <c r="D487">
-        <v>0.1299478844144797</v>
+        <v>0.01934576053175134</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -7192,13 +7192,13 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>0.030755817960892</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C488">
-        <v>173.5498086385995</v>
+        <v>-0.002991598565082576</v>
       </c>
       <c r="D488">
-        <v>0.1247275096824899</v>
+        <v>-0.001881749642321655</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -7206,13 +7206,13 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>-0.002991598565082576</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C489">
-        <v>173.9046473482769</v>
+        <v>0.007507339051902484</v>
       </c>
       <c r="D489">
-        <v>0.1320915459993573</v>
+        <v>0.004722201949349763</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -7220,13 +7220,13 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>0.007507339051902484</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C490">
-        <v>174.2594860579543</v>
+        <v>-0.01214839425691761</v>
       </c>
       <c r="D490">
-        <v>0.1363651952170424</v>
+        <v>-0.007641478644413694</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -7234,13 +7234,13 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>-0.01214839425691761</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C491">
-        <v>174.6143247676318</v>
+        <v>0.01890189994362146</v>
       </c>
       <c r="D491">
-        <v>0.1357336799603298</v>
+        <v>0.01188951080310724</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -7248,13 +7248,13 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>0.01890189994362146</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C492">
-        <v>174.980426462547</v>
+        <v>0.01282399496595321</v>
       </c>
       <c r="D492">
-        <v>0.1380958174716899</v>
+        <v>0.008097904085642033</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -7262,13 +7262,13 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>0.01282399496595321</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="C493">
-        <v>175.3465281574622</v>
+        <v>-0.00859044720503821</v>
       </c>
       <c r="D493">
-        <v>0.1380558615186726</v>
+        <v>-0.005424566814308659</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -7276,13 +7276,13 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>-0.00859044720503821</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C494">
-        <v>175.7013668671397</v>
+        <v>0.01898092738019486</v>
       </c>
       <c r="D494">
-        <v>0.1429993701683359</v>
+        <v>0.0119392199626988</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -7290,13 +7290,13 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>0.01898092738019486</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C495">
-        <v>176.0562055768171</v>
+        <v>-0.002802348799523458</v>
       </c>
       <c r="D495">
-        <v>0.1455096072839559</v>
+        <v>-0.001762709379765406</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -7304,13 +7304,13 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>-0.002802348799523458</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C496">
-        <v>176.4110442864945</v>
+        <v>0.01081563094365467</v>
       </c>
       <c r="D496">
-        <v>0.1401498258784528</v>
+        <v>0.006803155308754948</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -7318,13 +7318,13 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>0.01081563094365467</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C497">
-        <v>176.7658829961719</v>
+        <v>-0.005672342603351588</v>
       </c>
       <c r="D497">
-        <v>0.1439790659265962</v>
+        <v>-0.003567968239310914</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -7332,13 +7332,13 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>-0.005672342603351588</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C498">
-        <v>177.1207217058493</v>
+        <v>-0.01133623904334158</v>
       </c>
       <c r="D498">
-        <v>0.1433657133509647</v>
+        <v>-0.007130623745466323</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -7346,13 +7346,13 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>-0.01133623904334158</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C499">
-        <v>177.4755604155267</v>
+        <v>0.00647353923933025</v>
       </c>
       <c r="D499">
-        <v>0.1471541213714241</v>
+        <v>0.004071930067872811</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -7360,13 +7360,13 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>0.00647353923933025</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C500">
-        <v>177.8303991252041</v>
+        <v>0.005612736904957671</v>
       </c>
       <c r="D500">
-        <v>0.145509607283956</v>
+        <v>0.003530475574706033</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -7374,13 +7374,13 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>0.005612736904957671</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C501">
-        <v>178.1852378348815</v>
+        <v>-0.01205098036565921</v>
       </c>
       <c r="D501">
-        <v>0.1349207171106716</v>
+        <v>-0.007580204194969779</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -7388,13 +7388,13 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>-0.01205098036565921</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C502">
-        <v>178.5400765445589</v>
+        <v>-0.01307370700347743</v>
       </c>
       <c r="D502">
-        <v>0.1428904125614613</v>
+        <v>-0.008223510923141757</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -7402,13 +7402,13 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>-0.01307370700347743</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C503">
-        <v>178.8949152542363</v>
+        <v>-0.01418948809553555</v>
       </c>
       <c r="D503">
-        <v>0.1364553554117798</v>
+        <v>-0.008925349965116187</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -7416,10 +7416,13 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>-0.01418948809553555</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C504">
-        <v>179.2497539639137</v>
+        <v>0.004343033554200737</v>
+      </c>
+      <c r="D504">
+        <v>0.002731817675204227</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -7427,10 +7430,13 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>0.004343033554200737</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C505">
-        <v>179.6045926735912</v>
+        <v>0.01562279835559188</v>
+      </c>
+      <c r="D505">
+        <v>0.009826918477909785</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -7438,10 +7444,13 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>0.01562279835559188</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C506">
-        <v>179.9594313832686</v>
+        <v>0.01686933528474555</v>
+      </c>
+      <c r="D506">
+        <v>0.01061100443381106</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -7449,10 +7458,13 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>0.01686933528474555</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C507">
-        <v>180.314270092946</v>
+        <v>-0.009307293457957222</v>
+      </c>
+      <c r="D507">
+        <v>-0.00585439381470296</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -7460,10 +7472,13 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>-0.009307293457957222</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C508">
-        <v>180.6691088026234</v>
+        <v>0.00711997030581113</v>
+      </c>
+      <c r="D508">
+        <v>0.004478542586789575</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -7471,10 +7486,13 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>0.00711997030581113</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C509">
-        <v>181.0239475123008</v>
+        <v>-0.00902722197003758</v>
+      </c>
+      <c r="D509">
+        <v>-0.00567822565217988</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -7482,10 +7500,13 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>-0.00902722197003758</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C510">
-        <v>181.3787862219782</v>
+        <v>0.01273410317087365</v>
+      </c>
+      <c r="D510">
+        <v>0.008009896236334474</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -7493,10 +7514,13 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>0.01273410317087365</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C511">
-        <v>181.7336249316556</v>
+        <v>0.007390117010894315</v>
+      </c>
+      <c r="D511">
+        <v>0.004648467947631104</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -7504,161 +7528,181 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>0.007390117010894315</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C512">
-        <v>182.088463641333</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3">
+        <v>-0.001092034325596458</v>
+      </c>
+      <c r="D512">
+        <v>-0.0006869020548341463</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
       <c r="A513" s="1">
         <v>511</v>
       </c>
       <c r="B513">
-        <v>-0.001092034325596458</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C513">
-        <v>182.4433023510104</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3">
+        <v>0.004084676049811442</v>
+      </c>
+      <c r="D513">
+        <v>0.002569307856156279</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
       <c r="A514" s="1">
         <v>512</v>
       </c>
       <c r="B514">
-        <v>0.004084676049811442</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C514">
-        <v>182.7981410606878</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3">
+        <v>-6.909298190826973e-05</v>
+      </c>
+      <c r="D514">
+        <v>-4.346027421939026e-05</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
       <c r="A515" s="1">
         <v>513</v>
       </c>
       <c r="B515">
-        <v>-6.909298190826973e-05</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C515">
-        <v>183.1529797703652</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3">
+        <v>0.008548457186003944</v>
+      </c>
+      <c r="D515">
+        <v>0.005377077138596932</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
       <c r="A516" s="1">
         <v>514</v>
       </c>
       <c r="B516">
-        <v>0.008548457186003944</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C516">
-        <v>183.5078184800427</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3">
+        <v>0.004340774140459303</v>
+      </c>
+      <c r="D516">
+        <v>0.002730396478172839</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
       <c r="A517" s="1">
         <v>515</v>
       </c>
       <c r="B517">
-        <v>0.004340774140459303</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C517">
-        <v>183.8626571897201</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3">
+        <v>-0.009268287995086943</v>
+      </c>
+      <c r="D517">
+        <v>-0.005829858933365125</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
       <c r="A518" s="1">
         <v>516</v>
       </c>
       <c r="B518">
-        <v>-0.009268287995086943</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C518">
-        <v>184.2174958993975</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3">
+        <v>0.006621631906867265</v>
+      </c>
+      <c r="D518">
+        <v>0.004165082046022842</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
       <c r="A519" s="1">
         <v>517</v>
       </c>
       <c r="B519">
-        <v>0.006621631906867265</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C519">
-        <v>184.5723346090749</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3">
+        <v>-0.001060626895649897</v>
+      </c>
+      <c r="D519">
+        <v>-0.0006671464229261756</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
       <c r="A520" s="1">
         <v>518</v>
       </c>
       <c r="B520">
-        <v>-0.001060626895649897</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C520">
-        <v>184.9271733187523</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3">
+        <v>0.006551023991475446</v>
+      </c>
+      <c r="D520">
+        <v>0.004120668861351468</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
       <c r="A521" s="1">
         <v>519</v>
       </c>
       <c r="B521">
-        <v>0.006551023991475446</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C521">
-        <v>185.2820120284297</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3">
+        <v>-0.002843741007605871</v>
+      </c>
+      <c r="D521">
+        <v>-0.001788745551083009</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
       <c r="A522" s="1">
         <v>520</v>
       </c>
       <c r="B522">
-        <v>-0.002843741007605871</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C522">
-        <v>185.6368507381071</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3">
+        <v>-0.01831061311074755</v>
+      </c>
+      <c r="D522">
+        <v>-0.01151758463652303</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
       <c r="A523" s="1">
         <v>521</v>
       </c>
       <c r="B523">
-        <v>-0.01831061311074755</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C523">
-        <v>185.9916894477845</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3">
+        <v>0.01378142634608448</v>
+      </c>
+      <c r="D523">
+        <v>0.008668674467261245</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
       <c r="A524" s="1">
         <v>522</v>
       </c>
       <c r="B524">
-        <v>0.01378142634608448</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="C524">
-        <v>186.3465281574619</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3">
-      <c r="A525" s="1">
-        <v>523</v>
-      </c>
-      <c r="B525">
         <v>-0.01112768570502798</v>
       </c>
-      <c r="C525">
-        <v>186.7013668671393</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3">
-      <c r="A526" s="1">
-        <v>524</v>
-      </c>
-      <c r="C526">
-        <v>187.0562055768168</v>
+      <c r="D524">
+        <v>-0.006999441315324407</v>
       </c>
     </row>
   </sheetData>
